--- a/right_elbow_Data_Variable.xlsx
+++ b/right_elbow_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>117.7413558959961</v>
+        <v>250.0462341308594</v>
       </c>
       <c r="B2" t="n">
-        <v>123.5173873901367</v>
+        <v>255.1357727050781</v>
       </c>
       <c r="C2" t="n">
-        <v>134.1334228515625</v>
+        <v>258.2962646484375</v>
       </c>
       <c r="D2" t="n">
-        <v>144.0568084716797</v>
+        <v>261.2044067382812</v>
       </c>
       <c r="E2" t="n">
-        <v>152.0040435791016</v>
+        <v>265.7040405273438</v>
       </c>
       <c r="F2" t="n">
-        <v>161.3984985351562</v>
+        <v>273.5945739746094</v>
       </c>
       <c r="G2" t="n">
-        <v>169.5922088623047</v>
+        <v>283.3368225097656</v>
       </c>
       <c r="H2" t="n">
-        <v>180.4443969726562</v>
+        <v>293.0408020019531</v>
       </c>
       <c r="I2" t="n">
-        <v>186.5301361083984</v>
+        <v>302.840087890625</v>
       </c>
       <c r="J2" t="n">
-        <v>195.7357635498047</v>
+        <v>315.05859375</v>
       </c>
       <c r="K2" t="n">
-        <v>204.5250091552734</v>
+        <v>324.9535827636719</v>
       </c>
       <c r="L2" t="n">
-        <v>223.488037109375</v>
+        <v>335.22021484375</v>
       </c>
       <c r="M2" t="n">
-        <v>235.1070861816406</v>
+        <v>354.9720458984375</v>
       </c>
       <c r="N2" t="n">
-        <v>244.0155334472656</v>
+        <v>356.8566589355469</v>
       </c>
       <c r="O2" t="n">
-        <v>249.0332641601562</v>
+        <v>352.9785766601562</v>
       </c>
       <c r="P2" t="n">
-        <v>253.1127166748047</v>
+        <v>352.8128662109375</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.1003112792969</v>
+        <v>351.31591796875</v>
       </c>
       <c r="R2" t="n">
-        <v>260.7534790039062</v>
+        <v>349.3255615234375</v>
       </c>
       <c r="S2" t="n">
-        <v>263.8136901855469</v>
+        <v>346.8811645507812</v>
       </c>
       <c r="T2" t="n">
-        <v>264.9942932128906</v>
+        <v>345.3081665039062</v>
       </c>
       <c r="U2" t="n">
-        <v>266.0980834960938</v>
+        <v>341.8399047851562</v>
       </c>
       <c r="V2" t="n">
-        <v>266.5858764648438</v>
+        <v>335.6917114257812</v>
       </c>
       <c r="W2" t="n">
-        <v>266.9747619628906</v>
+        <v>332.4784851074219</v>
       </c>
       <c r="X2" t="n">
-        <v>267.5502319335938</v>
+        <v>329.8030090332031</v>
       </c>
       <c r="Y2" t="n">
-        <v>267.2997436523438</v>
+        <v>330.69921875</v>
       </c>
       <c r="Z2" t="n">
-        <v>267.3618469238281</v>
+        <v>328.4838562011719</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.7021179199219</v>
+        <v>325.9051513671875</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.1552124023438</v>
+        <v>323.01416015625</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.6095581054688</v>
+        <v>320.531494140625</v>
       </c>
       <c r="AD2" t="n">
-        <v>268.8522644042969</v>
+        <v>319.9243469238281</v>
       </c>
       <c r="AE2" t="n">
-        <v>270.9375305175781</v>
+        <v>318.9157104492188</v>
       </c>
       <c r="AF2" t="n">
-        <v>272.5144348144531</v>
+        <v>317.5615234375</v>
       </c>
       <c r="AG2" t="n">
-        <v>274.2116088867188</v>
+        <v>315.8076782226562</v>
       </c>
       <c r="AH2" t="n">
-        <v>276.5109252929688</v>
+        <v>315.711669921875</v>
       </c>
       <c r="AI2" t="n">
-        <v>279.8856811523438</v>
+        <v>315.7949523925781</v>
       </c>
       <c r="AJ2" t="n">
-        <v>284.3992919921875</v>
+        <v>315.8416748046875</v>
       </c>
       <c r="AK2" t="n">
-        <v>286.2829895019531</v>
+        <v>315.8067626953125</v>
       </c>
       <c r="AL2" t="n">
-        <v>286.5816955566406</v>
+        <v>315.4776916503906</v>
       </c>
       <c r="AM2" t="n">
-        <v>287.5118103027344</v>
+        <v>314.5285949707031</v>
       </c>
       <c r="AN2" t="n">
-        <v>289.8056335449219</v>
+        <v>312.4376220703125</v>
       </c>
       <c r="AO2" t="n">
-        <v>296.8958435058594</v>
+        <v>311.2444458007812</v>
       </c>
       <c r="AP2" t="n">
-        <v>300.2027587890625</v>
+        <v>310.5994262695312</v>
       </c>
       <c r="AQ2" t="n">
-        <v>302.7572021484375</v>
+        <v>310.4664001464844</v>
       </c>
       <c r="AR2" t="n">
-        <v>303.8020324707031</v>
+        <v>310.41064453125</v>
       </c>
       <c r="AS2" t="n">
-        <v>305.2336120605469</v>
+        <v>310.269287109375</v>
       </c>
       <c r="AT2" t="n">
-        <v>306.8833923339844</v>
+        <v>310.007080078125</v>
       </c>
       <c r="AU2" t="n">
-        <v>307.7005004882812</v>
+        <v>309.6255493164062</v>
       </c>
       <c r="AV2" t="n">
-        <v>311.0095520019531</v>
+        <v>309.19873046875</v>
       </c>
       <c r="AW2" t="n">
-        <v>308.6934204101562</v>
+        <v>308.572021484375</v>
       </c>
       <c r="AX2" t="n">
-        <v>305.3414916992188</v>
+        <v>307.2293701171875</v>
       </c>
       <c r="AY2" t="n">
-        <v>304.89892578125</v>
+        <v>303.8577270507812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>305.4328308105469</v>
+        <v>299.9511413574219</v>
       </c>
       <c r="BA2" t="n">
-        <v>305.7145080566406</v>
+        <v>296.185791015625</v>
       </c>
       <c r="BB2" t="n">
-        <v>305.6300354003906</v>
+        <v>290.5977172851562</v>
       </c>
       <c r="BC2" t="n">
-        <v>305.3169555664062</v>
+        <v>284.7477416992188</v>
       </c>
       <c r="BD2" t="n">
-        <v>304.3335571289062</v>
+        <v>280.7089538574219</v>
       </c>
       <c r="BE2" t="n">
-        <v>303.7625732421875</v>
+        <v>276.2555847167969</v>
       </c>
       <c r="BF2" t="n">
-        <v>302.4516906738281</v>
+        <v>273.0806884765625</v>
       </c>
       <c r="BG2" t="n">
-        <v>300.2006530761719</v>
+        <v>270.694580078125</v>
       </c>
       <c r="BH2" t="n">
-        <v>299.6455078125</v>
+        <v>267.7044677734375</v>
       </c>
       <c r="BI2" t="n">
-        <v>298.7603149414062</v>
+        <v>265.4194030761719</v>
       </c>
       <c r="BJ2" t="n">
-        <v>298.8337097167969</v>
+        <v>262.5471801757812</v>
       </c>
       <c r="BK2" t="n">
-        <v>296.9075012207031</v>
+        <v>259.0094299316406</v>
       </c>
       <c r="BL2" t="n">
-        <v>294.9527893066406</v>
+        <v>255.0642547607422</v>
       </c>
       <c r="BM2" t="n">
-        <v>293.7950439453125</v>
+        <v>251.2044372558594</v>
       </c>
       <c r="BN2" t="n">
-        <v>293.056640625</v>
+        <v>247.5969696044922</v>
       </c>
       <c r="BO2" t="n">
-        <v>293.2954406738281</v>
+        <v>242.5608978271484</v>
       </c>
       <c r="BP2" t="n">
-        <v>294.0047302246094</v>
+        <v>240.2708282470703</v>
       </c>
       <c r="BQ2" t="n">
-        <v>294.1692810058594</v>
+        <v>236.3781890869141</v>
       </c>
       <c r="BR2" t="n">
-        <v>292.1441040039062</v>
+        <v>231.4947814941406</v>
       </c>
       <c r="BS2" t="n">
-        <v>290.0265197753906</v>
+        <v>228.1993408203125</v>
       </c>
       <c r="BT2" t="n">
-        <v>292.3473815917969</v>
+        <v>226.4085388183594</v>
       </c>
       <c r="BU2" t="n">
-        <v>289.6416320800781</v>
+        <v>224.6743774414062</v>
       </c>
       <c r="BV2" t="n">
-        <v>288.2225341796875</v>
+        <v>224.5162963867188</v>
       </c>
       <c r="BW2" t="n">
-        <v>289.7581787109375</v>
+        <v>224.291015625</v>
       </c>
       <c r="BX2" t="n">
-        <v>289.9222106933594</v>
+        <v>224.2890625</v>
       </c>
       <c r="BY2" t="n">
-        <v>291.4597473144531</v>
+        <v>224.5252685546875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>292.0475769042969</v>
+        <v>224.5616455078125</v>
       </c>
       <c r="CA2" t="n">
-        <v>293.6148071289062</v>
+        <v>224.7111206054688</v>
       </c>
       <c r="CB2" t="n">
-        <v>294.4599914550781</v>
+        <v>225.5873260498047</v>
       </c>
       <c r="CC2" t="n">
-        <v>296.4285278320312</v>
+        <v>227.7626190185547</v>
       </c>
       <c r="CD2" t="n">
-        <v>295.8539428710938</v>
+        <v>234.1845855712891</v>
       </c>
       <c r="CE2" t="n">
-        <v>295.8979187011719</v>
+        <v>243.8929443359375</v>
       </c>
       <c r="CF2" t="n">
-        <v>296.966796875</v>
+        <v>247.8809356689453</v>
       </c>
       <c r="CG2" t="n">
-        <v>297.7772521972656</v>
+        <v>252.8622741699219</v>
       </c>
       <c r="CH2" t="n">
-        <v>298.0561218261719</v>
+        <v>256.4890747070312</v>
       </c>
       <c r="CI2" t="n">
-        <v>297.4446105957031</v>
+        <v>261.6951599121094</v>
       </c>
       <c r="CJ2" t="n">
-        <v>297.0282897949219</v>
+        <v>265.9139404296875</v>
       </c>
       <c r="CK2" t="n">
-        <v>297.0194702148438</v>
+        <v>270.1721801757812</v>
       </c>
       <c r="CL2" t="n">
-        <v>296.501953125</v>
+        <v>274.4745178222656</v>
       </c>
       <c r="CM2" t="n">
-        <v>297.7665100097656</v>
+        <v>276.6520080566406</v>
       </c>
       <c r="CN2" t="n">
-        <v>298.5721435546875</v>
+        <v>281.8998107910156</v>
       </c>
       <c r="CO2" t="n">
-        <v>296.2268981933594</v>
+        <v>282.3578491210938</v>
       </c>
       <c r="CP2" t="n">
-        <v>293.1564636230469</v>
+        <v>283.0670471191406</v>
       </c>
       <c r="CQ2" t="n">
-        <v>292.0420532226562</v>
+        <v>283.380126953125</v>
       </c>
       <c r="CR2" t="n">
-        <v>290.2211608886719</v>
+        <v>282.4810791015625</v>
       </c>
       <c r="CS2" t="n">
-        <v>288.0292053222656</v>
+        <v>275.7262573242188</v>
       </c>
       <c r="CT2" t="n">
-        <v>287.1747131347656</v>
+        <v>263.2023010253906</v>
       </c>
       <c r="CU2" t="n">
-        <v>284.3341979980469</v>
+        <v>259.6892700195312</v>
       </c>
       <c r="CV2" t="n">
-        <v>277.5005187988281</v>
+        <v>252.5944366455078</v>
       </c>
       <c r="CW2" t="n">
-        <v>274.9428100585938</v>
+        <v>245.0371551513672</v>
       </c>
       <c r="CX2" t="n">
-        <v>275.3238525390625</v>
+        <v>235.733154296875</v>
       </c>
       <c r="CY2" t="n">
-        <v>274.1070556640625</v>
+        <v>232.3645324707031</v>
       </c>
       <c r="CZ2" t="n">
-        <v>267.8087768554688</v>
+        <v>222.9208679199219</v>
       </c>
       <c r="DA2" t="n">
-        <v>270.5901184082031</v>
+        <v>221.3084564208984</v>
       </c>
       <c r="DB2" t="n">
-        <v>268.4989929199219</v>
+        <v>219.8704528808594</v>
       </c>
       <c r="DC2" t="n">
-        <v>270.9920959472656</v>
+        <v>216.8577270507812</v>
       </c>
       <c r="DD2" t="n">
-        <v>267.5369567871094</v>
+        <v>211.9572143554688</v>
       </c>
       <c r="DE2" t="n">
-        <v>294.4664611816406</v>
+        <v>204.6119995117188</v>
       </c>
       <c r="DF2" t="n">
-        <v>280.4074096679688</v>
+        <v>199.3864135742188</v>
       </c>
       <c r="DG2" t="n">
-        <v>281.1439514160156</v>
+        <v>196.12646484375</v>
       </c>
       <c r="DH2" t="n">
-        <v>282.3204040527344</v>
+        <v>191.0890350341797</v>
       </c>
       <c r="DI2" t="n">
-        <v>281.2875366210938</v>
+        <v>188.805908203125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>281.375732421875</v>
+        <v>185.2561187744141</v>
       </c>
       <c r="DK2" t="n">
-        <v>273.9769897460938</v>
+        <v>181.3981781005859</v>
       </c>
       <c r="DL2" t="n">
-        <v>276.4661865234375</v>
+        <v>179.5664367675781</v>
       </c>
       <c r="DM2" t="n">
-        <v>277.330322265625</v>
+        <v>181.3784790039062</v>
       </c>
       <c r="DN2" t="n">
-        <v>285.2307739257812</v>
+        <v>182.2232818603516</v>
       </c>
       <c r="DO2" t="n">
-        <v>288.7073059082031</v>
+        <v>183.7785491943359</v>
       </c>
       <c r="DP2" t="n">
-        <v>289.3678894042969</v>
+        <v>188.2191162109375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>293.3154602050781</v>
+        <v>204.5245666503906</v>
       </c>
       <c r="DR2" t="n">
-        <v>299.72021484375</v>
+        <v>214.6001586914062</v>
       </c>
       <c r="DS2" t="n">
-        <v>304.4784851074219</v>
+        <v>221.1377105712891</v>
       </c>
       <c r="DT2" t="n">
-        <v>304.9710998535156</v>
+        <v>236.7323608398438</v>
       </c>
       <c r="DU2" t="n">
-        <v>309.27685546875</v>
+        <v>250.6905364990234</v>
       </c>
       <c r="DV2" t="n">
-        <v>309.5243530273438</v>
+        <v>253.2775573730469</v>
       </c>
       <c r="DW2" t="n">
-        <v>312.7579345703125</v>
+        <v>259.8987426757812</v>
       </c>
       <c r="DX2" t="n">
-        <v>313.6786804199219</v>
+        <v>261.5746459960938</v>
       </c>
       <c r="DY2" t="n">
-        <v>314.9353332519531</v>
+        <v>262.8199157714844</v>
       </c>
       <c r="DZ2" t="n">
-        <v>315.2285461425781</v>
+        <v>268.8638610839844</v>
       </c>
       <c r="EA2" t="n">
-        <v>314.7651672363281</v>
+        <v>272.2080688476562</v>
       </c>
       <c r="EB2" t="n">
-        <v>314.9236450195312</v>
+        <v>280.9767456054688</v>
       </c>
       <c r="EC2" t="n">
-        <v>314.5496826171875</v>
+        <v>283.6119079589844</v>
       </c>
       <c r="ED2" t="n">
-        <v>314.9716796875</v>
+        <v>288.5655822753906</v>
       </c>
       <c r="EE2" t="n">
-        <v>314.7007446289062</v>
+        <v>299.8045043945312</v>
       </c>
       <c r="EF2" t="n">
-        <v>314.1301574707031</v>
+        <v>313.6324768066406</v>
       </c>
       <c r="EG2" t="n">
-        <v>313.8741455078125</v>
+        <v>332.1205139160156</v>
       </c>
       <c r="EH2" t="n">
-        <v>308.5249633789062</v>
+        <v>338.8898315429688</v>
       </c>
       <c r="EI2" t="n">
-        <v>306.8869934082031</v>
+        <v>354.1076965332031</v>
       </c>
       <c r="EJ2" t="n">
-        <v>304.6922912597656</v>
+        <v>360.7362365722656</v>
       </c>
       <c r="EK2" t="n">
-        <v>303.4439697265625</v>
+        <v>373.2021484375</v>
       </c>
       <c r="EL2" t="n">
-        <v>299.4619750976562</v>
+        <v>374.8251037597656</v>
       </c>
       <c r="EM2" t="n">
-        <v>296.3943786621094</v>
+        <v>376.4158325195312</v>
       </c>
       <c r="EN2" t="n">
-        <v>291.3075561523438</v>
+        <v>378.4240417480469</v>
       </c>
       <c r="EO2" t="n">
-        <v>289.3509521484375</v>
+        <v>384.4627380371094</v>
       </c>
       <c r="EP2" t="n">
-        <v>288.6403503417969</v>
+        <v>383.5281982421875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>284.9521179199219</v>
+        <v>380.5864868164062</v>
       </c>
       <c r="ER2" t="n">
-        <v>283.4970092773438</v>
+        <v>380.7876892089844</v>
       </c>
       <c r="ES2" t="n">
-        <v>283.8317565917969</v>
+        <v>381.2998046875</v>
       </c>
       <c r="ET2" t="n">
-        <v>283.4677429199219</v>
+        <v>384.1021423339844</v>
       </c>
       <c r="EU2" t="n">
-        <v>283.4410400390625</v>
+        <v>387.1734924316406</v>
       </c>
       <c r="EV2" t="n">
-        <v>283.6107788085938</v>
+        <v>392.5977783203125</v>
       </c>
       <c r="EW2" t="n">
-        <v>283.7078552246094</v>
+        <v>398.3246154785156</v>
       </c>
       <c r="EX2" t="n">
-        <v>284.0304260253906</v>
+        <v>400.587890625</v>
       </c>
       <c r="EY2" t="n">
-        <v>284.6102905273438</v>
+        <v>400.3155517578125</v>
       </c>
       <c r="EZ2" t="n">
-        <v>286.6325988769531</v>
+        <v>400.2142333984375</v>
       </c>
       <c r="FA2" t="n">
-        <v>292.5284729003906</v>
+        <v>402.577392578125</v>
       </c>
       <c r="FB2" t="n">
-        <v>295.5365905761719</v>
+        <v>403.94873046875</v>
       </c>
       <c r="FC2" t="n">
-        <v>294.5613708496094</v>
+        <v>401.5491943359375</v>
       </c>
       <c r="FD2" t="n">
-        <v>299.6464233398438</v>
+        <v>403.33251953125</v>
       </c>
       <c r="FE2" t="n">
-        <v>301.943603515625</v>
+        <v>402.5640258789062</v>
       </c>
       <c r="FF2" t="n">
-        <v>299.9434509277344</v>
+        <v>402.1571044921875</v>
       </c>
       <c r="FG2" t="n">
-        <v>296.47705078125</v>
+        <v>400.630126953125</v>
       </c>
       <c r="FH2" t="n">
-        <v>298.5394897460938</v>
+        <v>399.6588745117188</v>
       </c>
       <c r="FI2" t="n">
-        <v>297.8933410644531</v>
+        <v>399.989990234375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>297.2983093261719</v>
+        <v>401.151611328125</v>
       </c>
       <c r="FK2" t="n">
-        <v>297.9347229003906</v>
+        <v>402.484375</v>
       </c>
       <c r="FL2" t="n">
-        <v>296.9255981445312</v>
+        <v>401.8540954589844</v>
       </c>
       <c r="FM2" t="n">
-        <v>295.7145690917969</v>
+        <v>400.2828979492188</v>
       </c>
       <c r="FN2" t="n">
-        <v>306.300537109375</v>
+        <v>399.2540893554688</v>
       </c>
       <c r="FO2" t="n">
-        <v>297.3561401367188</v>
+        <v>398.8515930175781</v>
       </c>
       <c r="FP2" t="n">
-        <v>291.3330688476562</v>
+        <v>398.4869689941406</v>
       </c>
       <c r="FQ2" t="n">
-        <v>288.4403686523438</v>
+        <v>396.810302734375</v>
       </c>
       <c r="FR2" t="n">
-        <v>284.3346557617188</v>
+        <v>395.3925170898438</v>
       </c>
       <c r="FS2" t="n">
-        <v>283.0220642089844</v>
+        <v>393.0086059570312</v>
       </c>
       <c r="FT2" t="n">
-        <v>274.4156799316406</v>
+        <v>387.2457580566406</v>
       </c>
       <c r="FU2" t="n">
-        <v>275.1688842773438</v>
+        <v>386.0916442871094</v>
       </c>
       <c r="FV2" t="n">
-        <v>274.9932556152344</v>
+        <v>377.3307800292969</v>
       </c>
       <c r="FW2" t="n">
-        <v>276.7838439941406</v>
+        <v>372.9263916015625</v>
       </c>
       <c r="FX2" t="n">
-        <v>274.5396423339844</v>
+        <v>366.6680908203125</v>
       </c>
       <c r="FY2" t="n">
-        <v>273.6519165039062</v>
+        <v>363.8472290039062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>273.7679443359375</v>
+        <v>362.263671875</v>
       </c>
       <c r="GA2" t="n">
-        <v>273.9229125976562</v>
+        <v>362.6280517578125</v>
       </c>
       <c r="GB2" t="n">
-        <v>274.4916076660156</v>
+        <v>362.0302734375</v>
       </c>
       <c r="GC2" t="n">
-        <v>274.9016418457031</v>
+        <v>360.6040954589844</v>
       </c>
       <c r="GD2" t="n">
-        <v>274.8132019042969</v>
+        <v>355.9158935546875</v>
       </c>
       <c r="GE2" t="n">
-        <v>273.2244873046875</v>
+        <v>355.4491577148438</v>
       </c>
       <c r="GF2" t="n">
-        <v>275.3904113769531</v>
+        <v>355.3887329101562</v>
       </c>
       <c r="GG2" t="n">
-        <v>274.8215026855469</v>
+        <v>359.6256713867188</v>
       </c>
       <c r="GH2" t="n">
-        <v>274.8361206054688</v>
+        <v>359.028076171875</v>
       </c>
       <c r="GI2" t="n">
-        <v>275.1865234375</v>
+        <v>356.5578918457031</v>
       </c>
       <c r="GJ2" t="n">
-        <v>274.7615966796875</v>
+        <v>353.4851684570312</v>
       </c>
       <c r="GK2" t="n">
-        <v>272.0414428710938</v>
+        <v>350.1459045410156</v>
       </c>
       <c r="GL2" t="n">
-        <v>270.4762268066406</v>
+        <v>347.7741088867188</v>
       </c>
       <c r="GM2" t="n">
-        <v>270.3180236816406</v>
+        <v>342.03955078125</v>
       </c>
       <c r="GN2" t="n">
-        <v>270.2898559570312</v>
+        <v>339.22021484375</v>
       </c>
       <c r="GO2" t="n">
-        <v>259.8422241210938</v>
+        <v>331.7940979003906</v>
       </c>
       <c r="GP2" t="n">
-        <v>252.2793884277344</v>
+        <v>323.9873962402344</v>
       </c>
       <c r="GQ2" t="n">
-        <v>251.2354888916016</v>
+        <v>316.5880432128906</v>
       </c>
       <c r="GR2" t="n">
-        <v>249.1800231933594</v>
+        <v>309.4463806152344</v>
       </c>
       <c r="GS2" t="n">
-        <v>244.1634368896484</v>
+        <v>306.3938903808594</v>
       </c>
       <c r="GT2" t="n">
-        <v>240.3392639160156</v>
+        <v>305.6917419433594</v>
       </c>
       <c r="GU2" t="n">
-        <v>231.8362579345703</v>
+        <v>298.1473388671875</v>
       </c>
       <c r="GV2" t="n">
-        <v>226.6841888427734</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="GW2" t="n">
-        <v>223.9420471191406</v>
+        <v>297.6324768066406</v>
       </c>
       <c r="GX2" t="n">
-        <v>214.7564392089844</v>
+        <v>293.9351501464844</v>
       </c>
       <c r="GY2" t="n">
-        <v>211.7356567382812</v>
+        <v>290.5335998535156</v>
       </c>
       <c r="GZ2" t="n">
-        <v>208.8656463623047</v>
+        <v>290.7785949707031</v>
       </c>
       <c r="HA2" t="n">
-        <v>209.1972351074219</v>
+        <v>291.4188232421875</v>
       </c>
       <c r="HB2" t="n">
-        <v>220.8074188232422</v>
+        <v>292.6532287597656</v>
       </c>
       <c r="HC2" t="n">
-        <v>229.4715728759766</v>
+        <v>292.6924743652344</v>
       </c>
       <c r="HD2" t="n">
-        <v>228.1920623779297</v>
+        <v>292.5196533203125</v>
       </c>
       <c r="HE2" t="n">
-        <v>230.0762634277344</v>
+        <v>292.5462341308594</v>
       </c>
       <c r="HF2" t="n">
-        <v>234.4229888916016</v>
+        <v>292.1202087402344</v>
       </c>
       <c r="HG2" t="n">
-        <v>233.0651550292969</v>
+        <v>289.9732666015625</v>
       </c>
       <c r="HH2" t="n">
-        <v>229.0370941162109</v>
+        <v>288.7677001953125</v>
       </c>
       <c r="HI2" t="n">
-        <v>223.4676208496094</v>
+        <v>288.453369140625</v>
       </c>
       <c r="HJ2" t="n">
-        <v>217.5605621337891</v>
+        <v>294.0784301757812</v>
       </c>
       <c r="HK2" t="n">
-        <v>208.6166687011719</v>
+        <v>302.4305419921875</v>
       </c>
       <c r="HL2" t="n">
-        <v>198.9381713867188</v>
+        <v>310.3659362792969</v>
       </c>
       <c r="HM2" t="n">
-        <v>188.8705139160156</v>
+        <v>319.7218322753906</v>
       </c>
       <c r="HN2" t="n">
-        <v>174.7615356445312</v>
+        <v>330.5877075195312</v>
       </c>
       <c r="HO2" t="n">
-        <v>162.1960144042969</v>
+        <v>349.6348876953125</v>
       </c>
       <c r="HP2" t="n">
-        <v>155.0326080322266</v>
+        <v>359.4440307617188</v>
       </c>
       <c r="HQ2" t="n">
-        <v>150.8657836914062</v>
+        <v>365.1171875</v>
       </c>
       <c r="HR2" t="n">
-        <v>131.0862426757812</v>
+        <v>375.7824401855469</v>
       </c>
       <c r="HS2" t="n">
-        <v>94.0382080078125</v>
+        <v>383.586669921875</v>
       </c>
       <c r="HT2" t="n">
-        <v>101.3839721679688</v>
+        <v>386.7073059082031</v>
       </c>
       <c r="HU2" t="n">
-        <v>93.2706298828125</v>
+        <v>386.1312255859375</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>387.3540649414062</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>389.0158081054688</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>388.9041748046875</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>388.9284057617188</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>388.8877868652344</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>388.5274658203125</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>388.3511962890625</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>387.5890808105469</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>385.7925415039062</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>382.27392578125</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>379.432861328125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>376.280517578125</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>373.1305236816406</v>
+      </c>
+      <c r="II2" t="n">
+        <v>366.3502502441406</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>357.9931030273438</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>345.1078796386719</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>339.7706909179688</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>331.7159729003906</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>316.7796020507812</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>312.1838989257812</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>307.3323059082031</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>298.0469665527344</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>298.5475463867188</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>298.7856750488281</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>293.4212951660156</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>291.3912048339844</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>293.5420837402344</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>291.9714965820312</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>292.5361328125</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>292.947021484375</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>292.6362609863281</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>292.0014953613281</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>292.308349609375</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>300.966552734375</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>302.9888000488281</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>314.3668823242188</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>316.2606811523438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>328.0362548828125</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>336.3604125976562</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>344.0515747070312</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>349.4439392089844</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>354.73974609375</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>361.2901611328125</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>364.4217529296875</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>366.7542724609375</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>370.5090942382812</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>370.7361450195312</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>370.4801025390625</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>371.313720703125</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>375.3129272460938</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>377.3081665039062</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>377.36279296875</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>377.6412658691406</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>378.2272338867188</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>378.4985046386719</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>378.4110717773438</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>378.2126159667969</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>377.5380859375</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>376.5231628417969</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>371.1597290039062</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>364.7557373046875</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>363.6493530273438</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>363.4434814453125</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>363.120849609375</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>362.7867126464844</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>362.7537841796875</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>362.662109375</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>362.5695495605469</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>362.4034423828125</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>361.24365234375</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>352.0199584960938</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>344.3191223144531</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>339.898193359375</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>336.2994995117188</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>337.1091918945312</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>337.7216186523438</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>337.6737060546875</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>338.3209533691406</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>336.7933959960938</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>336.7926025390625</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>336.531005859375</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>336.8130493164062</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>337.4192810058594</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>340.2142333984375</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>344.3329467773438</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>350.4630126953125</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>367.32568359375</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>372.5848388671875</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>377.318115234375</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>377.7175598144531</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>381.0205688476562</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>384.6255493164062</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>388.0258178710938</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>394.1214294433594</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>395.7064208984375</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>398.0175170898438</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>399.9044189453125</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>402.5066833496094</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>405.8691101074219</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>409.4053649902344</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>407.1118774414062</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>402.647216796875</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>407.7557373046875</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>409.9115295410156</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>407.3851928710938</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>410.4754638671875</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>411.1935119628906</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>393.6398620605469</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>383.016845703125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>357.09375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>335.7324829101562</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>317.5265808105469</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>294.6690979003906</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>257</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>255.8138732910156</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>257.4966735839844</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>260.6882629394531</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>272.1273193359375</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>300.8417663574219</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>306.832275390625</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>308.8518981933594</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>305.5372314453125</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>304.6663818359375</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>305.2737731933594</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>304.8214416503906</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>291.7303161621094</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>250.9134521484375</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>236.7386779785156</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>218.3399353027344</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>194.3350830078125</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>191.073974609375</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>207.5541381835938</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>181.5490417480469</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>183.346923828125</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>190.9564514160156</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>192.9535675048828</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>194.6111755371094</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>199.7878875732422</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>208.2484130859375</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>211.8137969970703</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>215.9223785400391</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>221.9763488769531</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>227.4322204589844</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>226.6460418701172</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>225.919189453125</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>225.4359436035156</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>223.7901000976562</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>220.4589538574219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>272.9451293945312</v>
+        <v>241.9690093994141</v>
       </c>
       <c r="B3" t="n">
-        <v>282.9474182128906</v>
+        <v>254.3951568603516</v>
       </c>
       <c r="C3" t="n">
-        <v>289.0682373046875</v>
+        <v>262.61328125</v>
       </c>
       <c r="D3" t="n">
-        <v>292.1522216796875</v>
+        <v>274.7791137695312</v>
       </c>
       <c r="E3" t="n">
-        <v>296.1752014160156</v>
+        <v>287.4554443359375</v>
       </c>
       <c r="F3" t="n">
-        <v>292.9981079101562</v>
+        <v>294.4808959960938</v>
       </c>
       <c r="G3" t="n">
-        <v>296.0035400390625</v>
+        <v>294.9007263183594</v>
       </c>
       <c r="H3" t="n">
-        <v>298.3314208984375</v>
+        <v>298.8460998535156</v>
       </c>
       <c r="I3" t="n">
-        <v>301.4532470703125</v>
+        <v>302.4447937011719</v>
       </c>
       <c r="J3" t="n">
-        <v>299.4666442871094</v>
+        <v>303.9192199707031</v>
       </c>
       <c r="K3" t="n">
-        <v>305.7080688476562</v>
+        <v>302.1224975585938</v>
       </c>
       <c r="L3" t="n">
-        <v>306.1609191894531</v>
+        <v>297.3618774414062</v>
       </c>
       <c r="M3" t="n">
-        <v>311.027587890625</v>
+        <v>286.80908203125</v>
       </c>
       <c r="N3" t="n">
-        <v>303.1915283203125</v>
+        <v>280.3197631835938</v>
       </c>
       <c r="O3" t="n">
-        <v>278.788330078125</v>
+        <v>267.7724609375</v>
       </c>
       <c r="P3" t="n">
-        <v>271.619384765625</v>
+        <v>264.1632690429688</v>
       </c>
       <c r="Q3" t="n">
-        <v>265.3243408203125</v>
+        <v>263.036376953125</v>
       </c>
       <c r="R3" t="n">
-        <v>259.9960327148438</v>
+        <v>261.6085815429688</v>
       </c>
       <c r="S3" t="n">
-        <v>256.8674621582031</v>
+        <v>261.6409606933594</v>
       </c>
       <c r="T3" t="n">
-        <v>255.6194152832031</v>
+        <v>263.0982055664062</v>
       </c>
       <c r="U3" t="n">
-        <v>255.6041870117188</v>
+        <v>262.13671875</v>
       </c>
       <c r="V3" t="n">
-        <v>256.8053283691406</v>
+        <v>266.5281066894531</v>
       </c>
       <c r="W3" t="n">
-        <v>258.1397705078125</v>
+        <v>270.4293823242188</v>
       </c>
       <c r="X3" t="n">
-        <v>258.9609680175781</v>
+        <v>274.2388305664062</v>
       </c>
       <c r="Y3" t="n">
-        <v>261.2534484863281</v>
+        <v>281.9971923828125</v>
       </c>
       <c r="Z3" t="n">
-        <v>262.4790649414062</v>
+        <v>286.8030090332031</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.8369750976562</v>
+        <v>288.5100708007812</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.6784973144531</v>
+        <v>291.3528442382812</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.8500061035156</v>
+        <v>293.2478332519531</v>
       </c>
       <c r="AD3" t="n">
-        <v>265.3484497070312</v>
+        <v>295.5511169433594</v>
       </c>
       <c r="AE3" t="n">
-        <v>264.2528076171875</v>
+        <v>296.7355346679688</v>
       </c>
       <c r="AF3" t="n">
-        <v>259.8353271484375</v>
+        <v>296.7117309570312</v>
       </c>
       <c r="AG3" t="n">
-        <v>257.6036987304688</v>
+        <v>296.2213745117188</v>
       </c>
       <c r="AH3" t="n">
-        <v>255.1926879882812</v>
+        <v>294.8553771972656</v>
       </c>
       <c r="AI3" t="n">
-        <v>253.5984954833984</v>
+        <v>291.9483032226562</v>
       </c>
       <c r="AJ3" t="n">
-        <v>253.1681671142578</v>
+        <v>290.5440979003906</v>
       </c>
       <c r="AK3" t="n">
-        <v>253.9247741699219</v>
+        <v>289.9407653808594</v>
       </c>
       <c r="AL3" t="n">
-        <v>254.8330535888672</v>
+        <v>290.2268371582031</v>
       </c>
       <c r="AM3" t="n">
-        <v>253.7657470703125</v>
+        <v>291.1004638671875</v>
       </c>
       <c r="AN3" t="n">
-        <v>251.7215881347656</v>
+        <v>292.6030883789062</v>
       </c>
       <c r="AO3" t="n">
-        <v>254.3360748291016</v>
+        <v>294.2027587890625</v>
       </c>
       <c r="AP3" t="n">
-        <v>254.3501739501953</v>
+        <v>296.2495727539062</v>
       </c>
       <c r="AQ3" t="n">
-        <v>254.1319580078125</v>
+        <v>297.7281188964844</v>
       </c>
       <c r="AR3" t="n">
-        <v>255.412841796875</v>
+        <v>298.5179138183594</v>
       </c>
       <c r="AS3" t="n">
-        <v>255.3893585205078</v>
+        <v>298.8788757324219</v>
       </c>
       <c r="AT3" t="n">
-        <v>254.0721130371094</v>
+        <v>299.5792541503906</v>
       </c>
       <c r="AU3" t="n">
-        <v>252.7031402587891</v>
+        <v>300.9134826660156</v>
       </c>
       <c r="AV3" t="n">
-        <v>252.7720336914062</v>
+        <v>301.6349182128906</v>
       </c>
       <c r="AW3" t="n">
-        <v>252.8134002685547</v>
+        <v>301.7234497070312</v>
       </c>
       <c r="AX3" t="n">
-        <v>251.5071411132812</v>
+        <v>301.2173156738281</v>
       </c>
       <c r="AY3" t="n">
-        <v>249.0254058837891</v>
+        <v>300.2841491699219</v>
       </c>
       <c r="AZ3" t="n">
-        <v>247.0012359619141</v>
+        <v>299.3764953613281</v>
       </c>
       <c r="BA3" t="n">
-        <v>247.3829498291016</v>
+        <v>298.1264953613281</v>
       </c>
       <c r="BB3" t="n">
-        <v>247.8211517333984</v>
+        <v>294.954345703125</v>
       </c>
       <c r="BC3" t="n">
-        <v>248.8369293212891</v>
+        <v>291.1004943847656</v>
       </c>
       <c r="BD3" t="n">
-        <v>252.1775665283203</v>
+        <v>289.1196899414062</v>
       </c>
       <c r="BE3" t="n">
-        <v>252.7959594726562</v>
+        <v>287.0625610351562</v>
       </c>
       <c r="BF3" t="n">
-        <v>252.5635833740234</v>
+        <v>285.1155395507812</v>
       </c>
       <c r="BG3" t="n">
-        <v>252.9042358398438</v>
+        <v>283.0247192382812</v>
       </c>
       <c r="BH3" t="n">
-        <v>254.2970123291016</v>
+        <v>280.4391479492188</v>
       </c>
       <c r="BI3" t="n">
-        <v>254.8582153320312</v>
+        <v>279.2247924804688</v>
       </c>
       <c r="BJ3" t="n">
-        <v>256.1222534179688</v>
+        <v>278.5415344238281</v>
       </c>
       <c r="BK3" t="n">
-        <v>254.9322814941406</v>
+        <v>278.556884765625</v>
       </c>
       <c r="BL3" t="n">
-        <v>254.1142883300781</v>
+        <v>279.3498840332031</v>
       </c>
       <c r="BM3" t="n">
-        <v>253.4589691162109</v>
+        <v>279.0919494628906</v>
       </c>
       <c r="BN3" t="n">
-        <v>252.54541015625</v>
+        <v>279.2555236816406</v>
       </c>
       <c r="BO3" t="n">
-        <v>251.9431915283203</v>
+        <v>279.8192443847656</v>
       </c>
       <c r="BP3" t="n">
-        <v>251.0240020751953</v>
+        <v>280.0113220214844</v>
       </c>
       <c r="BQ3" t="n">
-        <v>249.4726715087891</v>
+        <v>279.5841064453125</v>
       </c>
       <c r="BR3" t="n">
-        <v>247.8665313720703</v>
+        <v>278.4169616699219</v>
       </c>
       <c r="BS3" t="n">
-        <v>246.1690826416016</v>
+        <v>278.136962890625</v>
       </c>
       <c r="BT3" t="n">
-        <v>247.5882568359375</v>
+        <v>278.0308227539062</v>
       </c>
       <c r="BU3" t="n">
-        <v>246.2838439941406</v>
+        <v>278.095947265625</v>
       </c>
       <c r="BV3" t="n">
-        <v>245.8328857421875</v>
+        <v>278.4282836914062</v>
       </c>
       <c r="BW3" t="n">
-        <v>246.5776062011719</v>
+        <v>278.8065490722656</v>
       </c>
       <c r="BX3" t="n">
-        <v>247.8791656494141</v>
+        <v>278.9715576171875</v>
       </c>
       <c r="BY3" t="n">
-        <v>246.5404052734375</v>
+        <v>278.3917541503906</v>
       </c>
       <c r="BZ3" t="n">
-        <v>249.4913024902344</v>
+        <v>278.2363891601562</v>
       </c>
       <c r="CA3" t="n">
-        <v>249.9430847167969</v>
+        <v>277.7984313964844</v>
       </c>
       <c r="CB3" t="n">
-        <v>252.0162048339844</v>
+        <v>277.1100769042969</v>
       </c>
       <c r="CC3" t="n">
-        <v>252.3048553466797</v>
+        <v>276.5114135742188</v>
       </c>
       <c r="CD3" t="n">
-        <v>253.6129455566406</v>
+        <v>277.6658325195312</v>
       </c>
       <c r="CE3" t="n">
-        <v>253.4546813964844</v>
+        <v>279.6220397949219</v>
       </c>
       <c r="CF3" t="n">
-        <v>253.9106140136719</v>
+        <v>280.2673950195312</v>
       </c>
       <c r="CG3" t="n">
-        <v>251.1123046875</v>
+        <v>280.9870910644531</v>
       </c>
       <c r="CH3" t="n">
-        <v>247.4227752685547</v>
+        <v>280.9834594726562</v>
       </c>
       <c r="CI3" t="n">
-        <v>246.9066009521484</v>
+        <v>279.93896484375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>247.6692504882812</v>
+        <v>280.2843627929688</v>
       </c>
       <c r="CK3" t="n">
-        <v>247.5610809326172</v>
+        <v>280.8848876953125</v>
       </c>
       <c r="CL3" t="n">
-        <v>249.0963439941406</v>
+        <v>281.6644287109375</v>
       </c>
       <c r="CM3" t="n">
-        <v>248.9961700439453</v>
+        <v>281.2041015625</v>
       </c>
       <c r="CN3" t="n">
-        <v>249.1121215820312</v>
+        <v>280.4529724121094</v>
       </c>
       <c r="CO3" t="n">
-        <v>248.7920989990234</v>
+        <v>279.7897033691406</v>
       </c>
       <c r="CP3" t="n">
-        <v>249.39599609375</v>
+        <v>279.1170654296875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>249.6140899658203</v>
+        <v>277.9779968261719</v>
       </c>
       <c r="CR3" t="n">
-        <v>250.402587890625</v>
+        <v>276.4013977050781</v>
       </c>
       <c r="CS3" t="n">
-        <v>250.3339538574219</v>
+        <v>269.91845703125</v>
       </c>
       <c r="CT3" t="n">
-        <v>249.3519897460938</v>
+        <v>258.704833984375</v>
       </c>
       <c r="CU3" t="n">
-        <v>249.5447387695312</v>
+        <v>254.7223358154297</v>
       </c>
       <c r="CV3" t="n">
-        <v>250.1818084716797</v>
+        <v>247.950927734375</v>
       </c>
       <c r="CW3" t="n">
-        <v>249.1108093261719</v>
+        <v>242.1250762939453</v>
       </c>
       <c r="CX3" t="n">
-        <v>246.8978118896484</v>
+        <v>233.6093597412109</v>
       </c>
       <c r="CY3" t="n">
-        <v>248.6518707275391</v>
+        <v>227.4682769775391</v>
       </c>
       <c r="CZ3" t="n">
-        <v>247.7911682128906</v>
+        <v>212.3861846923828</v>
       </c>
       <c r="DA3" t="n">
-        <v>249.5348968505859</v>
+        <v>209.3753814697266</v>
       </c>
       <c r="DB3" t="n">
-        <v>249.2264862060547</v>
+        <v>207.8426666259766</v>
       </c>
       <c r="DC3" t="n">
-        <v>251.3161773681641</v>
+        <v>204.1690368652344</v>
       </c>
       <c r="DD3" t="n">
-        <v>249.9567565917969</v>
+        <v>199.4710693359375</v>
       </c>
       <c r="DE3" t="n">
-        <v>246.9901885986328</v>
+        <v>196.3081970214844</v>
       </c>
       <c r="DF3" t="n">
-        <v>252.1766815185547</v>
+        <v>196.1220855712891</v>
       </c>
       <c r="DG3" t="n">
-        <v>254.5643005371094</v>
+        <v>196.1687469482422</v>
       </c>
       <c r="DH3" t="n">
-        <v>257.7038269042969</v>
+        <v>196.8415832519531</v>
       </c>
       <c r="DI3" t="n">
-        <v>258.0317077636719</v>
+        <v>197.6601409912109</v>
       </c>
       <c r="DJ3" t="n">
-        <v>257.4455261230469</v>
+        <v>208.4077758789062</v>
       </c>
       <c r="DK3" t="n">
-        <v>253.2263641357422</v>
+        <v>217.6510467529297</v>
       </c>
       <c r="DL3" t="n">
-        <v>253.1716003417969</v>
+        <v>222.4478302001953</v>
       </c>
       <c r="DM3" t="n">
-        <v>252.0457916259766</v>
+        <v>230.9313659667969</v>
       </c>
       <c r="DN3" t="n">
-        <v>254.5171203613281</v>
+        <v>235.3270568847656</v>
       </c>
       <c r="DO3" t="n">
-        <v>255.759765625</v>
+        <v>240.5266265869141</v>
       </c>
       <c r="DP3" t="n">
-        <v>256.0650024414062</v>
+        <v>248.3709869384766</v>
       </c>
       <c r="DQ3" t="n">
-        <v>257.5232543945312</v>
+        <v>266.1051635742188</v>
       </c>
       <c r="DR3" t="n">
-        <v>256.2254028320312</v>
+        <v>273.9951782226562</v>
       </c>
       <c r="DS3" t="n">
-        <v>253.7808380126953</v>
+        <v>278.1972351074219</v>
       </c>
       <c r="DT3" t="n">
-        <v>252.7179870605469</v>
+        <v>284.4779663085938</v>
       </c>
       <c r="DU3" t="n">
-        <v>246.440673828125</v>
+        <v>288.3721008300781</v>
       </c>
       <c r="DV3" t="n">
-        <v>249.8201446533203</v>
+        <v>290.3753967285156</v>
       </c>
       <c r="DW3" t="n">
-        <v>251.5881652832031</v>
+        <v>291.4903564453125</v>
       </c>
       <c r="DX3" t="n">
-        <v>246.2667236328125</v>
+        <v>290.1100463867188</v>
       </c>
       <c r="DY3" t="n">
-        <v>247.4469299316406</v>
+        <v>290.3755187988281</v>
       </c>
       <c r="DZ3" t="n">
-        <v>247.6544647216797</v>
+        <v>290.8315124511719</v>
       </c>
       <c r="EA3" t="n">
-        <v>246.8977203369141</v>
+        <v>291.9023132324219</v>
       </c>
       <c r="EB3" t="n">
-        <v>247.5656280517578</v>
+        <v>293.2940979003906</v>
       </c>
       <c r="EC3" t="n">
-        <v>248.0579833984375</v>
+        <v>293.6227111816406</v>
       </c>
       <c r="ED3" t="n">
-        <v>247.3078308105469</v>
+        <v>296.4374694824219</v>
       </c>
       <c r="EE3" t="n">
-        <v>247.5663757324219</v>
+        <v>297.8121643066406</v>
       </c>
       <c r="EF3" t="n">
-        <v>246.1994323730469</v>
+        <v>300.968994140625</v>
       </c>
       <c r="EG3" t="n">
-        <v>245.1581115722656</v>
+        <v>301.9509582519531</v>
       </c>
       <c r="EH3" t="n">
-        <v>244.9539184570312</v>
+        <v>301.634765625</v>
       </c>
       <c r="EI3" t="n">
-        <v>243.6808471679688</v>
+        <v>304.3013000488281</v>
       </c>
       <c r="EJ3" t="n">
-        <v>247.1329650878906</v>
+        <v>302.3171997070312</v>
       </c>
       <c r="EK3" t="n">
-        <v>247.9218292236328</v>
+        <v>298.4395141601562</v>
       </c>
       <c r="EL3" t="n">
-        <v>249.1271820068359</v>
+        <v>296.8775634765625</v>
       </c>
       <c r="EM3" t="n">
-        <v>254.2919769287109</v>
+        <v>295.0498046875</v>
       </c>
       <c r="EN3" t="n">
-        <v>252.2863159179688</v>
+        <v>295.0702209472656</v>
       </c>
       <c r="EO3" t="n">
-        <v>247.0572814941406</v>
+        <v>296.375244140625</v>
       </c>
       <c r="EP3" t="n">
-        <v>249.7676239013672</v>
+        <v>296.8757629394531</v>
       </c>
       <c r="EQ3" t="n">
-        <v>253.1532440185547</v>
+        <v>299.659423828125</v>
       </c>
       <c r="ER3" t="n">
-        <v>250.9530334472656</v>
+        <v>298.9747009277344</v>
       </c>
       <c r="ES3" t="n">
-        <v>250.6071014404297</v>
+        <v>300.2326354980469</v>
       </c>
       <c r="ET3" t="n">
-        <v>251.2418975830078</v>
+        <v>304.8285217285156</v>
       </c>
       <c r="EU3" t="n">
-        <v>251.1542053222656</v>
+        <v>306.966552734375</v>
       </c>
       <c r="EV3" t="n">
-        <v>250.1711730957031</v>
+        <v>306.3992309570312</v>
       </c>
       <c r="EW3" t="n">
-        <v>249.6232757568359</v>
+        <v>305.1011962890625</v>
       </c>
       <c r="EX3" t="n">
-        <v>249.5677490234375</v>
+        <v>305.2235412597656</v>
       </c>
       <c r="EY3" t="n">
-        <v>249.4180908203125</v>
+        <v>302.5588989257812</v>
       </c>
       <c r="EZ3" t="n">
-        <v>251.0090484619141</v>
+        <v>301.3556213378906</v>
       </c>
       <c r="FA3" t="n">
-        <v>257.5391845703125</v>
+        <v>302.3255310058594</v>
       </c>
       <c r="FB3" t="n">
-        <v>258.8639831542969</v>
+        <v>304.823974609375</v>
       </c>
       <c r="FC3" t="n">
-        <v>251.5358428955078</v>
+        <v>304.1201171875</v>
       </c>
       <c r="FD3" t="n">
-        <v>253.18310546875</v>
+        <v>306.27392578125</v>
       </c>
       <c r="FE3" t="n">
-        <v>249.8827819824219</v>
+        <v>305.9505615234375</v>
       </c>
       <c r="FF3" t="n">
-        <v>248.1887664794922</v>
+        <v>306.6458740234375</v>
       </c>
       <c r="FG3" t="n">
-        <v>247.25927734375</v>
+        <v>308.2265930175781</v>
       </c>
       <c r="FH3" t="n">
-        <v>252.7111206054688</v>
+        <v>308.8368835449219</v>
       </c>
       <c r="FI3" t="n">
-        <v>251.2390441894531</v>
+        <v>310.9569702148438</v>
       </c>
       <c r="FJ3" t="n">
-        <v>252.1056823730469</v>
+        <v>312.9620056152344</v>
       </c>
       <c r="FK3" t="n">
-        <v>251.8349914550781</v>
+        <v>317.0264587402344</v>
       </c>
       <c r="FL3" t="n">
-        <v>252.5472717285156</v>
+        <v>316.1521301269531</v>
       </c>
       <c r="FM3" t="n">
-        <v>252.390625</v>
+        <v>314.1466369628906</v>
       </c>
       <c r="FN3" t="n">
-        <v>241.3093719482422</v>
+        <v>311.7328796386719</v>
       </c>
       <c r="FO3" t="n">
-        <v>256.88330078125</v>
+        <v>310.5301513671875</v>
       </c>
       <c r="FP3" t="n">
-        <v>257.2131652832031</v>
+        <v>310.1054992675781</v>
       </c>
       <c r="FQ3" t="n">
-        <v>259.7812194824219</v>
+        <v>309.4918518066406</v>
       </c>
       <c r="FR3" t="n">
-        <v>254.5641479492188</v>
+        <v>310.7089233398438</v>
       </c>
       <c r="FS3" t="n">
-        <v>255.2736511230469</v>
+        <v>311.4889831542969</v>
       </c>
       <c r="FT3" t="n">
-        <v>254.3720855712891</v>
+        <v>310.9472045898438</v>
       </c>
       <c r="FU3" t="n">
-        <v>251.0003814697266</v>
+        <v>310.2895202636719</v>
       </c>
       <c r="FV3" t="n">
-        <v>250.8369293212891</v>
+        <v>313.9345397949219</v>
       </c>
       <c r="FW3" t="n">
-        <v>251.4496765136719</v>
+        <v>316.7352600097656</v>
       </c>
       <c r="FX3" t="n">
-        <v>248.8234252929688</v>
+        <v>317.1044311523438</v>
       </c>
       <c r="FY3" t="n">
-        <v>251.8898620605469</v>
+        <v>318.4475708007812</v>
       </c>
       <c r="FZ3" t="n">
-        <v>249.3865051269531</v>
+        <v>319.871337890625</v>
       </c>
       <c r="GA3" t="n">
-        <v>252.5338897705078</v>
+        <v>320.843017578125</v>
       </c>
       <c r="GB3" t="n">
-        <v>253.422119140625</v>
+        <v>320.4445495605469</v>
       </c>
       <c r="GC3" t="n">
-        <v>253.5401306152344</v>
+        <v>319.7831726074219</v>
       </c>
       <c r="GD3" t="n">
-        <v>252.8766021728516</v>
+        <v>318.6410217285156</v>
       </c>
       <c r="GE3" t="n">
-        <v>257.3647766113281</v>
+        <v>319.0101928710938</v>
       </c>
       <c r="GF3" t="n">
-        <v>257.0796813964844</v>
+        <v>318.2890014648438</v>
       </c>
       <c r="GG3" t="n">
-        <v>257.0734558105469</v>
+        <v>316.2608642578125</v>
       </c>
       <c r="GH3" t="n">
-        <v>256.5421447753906</v>
+        <v>314.3863220214844</v>
       </c>
       <c r="GI3" t="n">
-        <v>252.3377838134766</v>
+        <v>313.9910583496094</v>
       </c>
       <c r="GJ3" t="n">
-        <v>251.5680084228516</v>
+        <v>313.1383056640625</v>
       </c>
       <c r="GK3" t="n">
-        <v>251.0189666748047</v>
+        <v>312.2421264648438</v>
       </c>
       <c r="GL3" t="n">
-        <v>249.6367034912109</v>
+        <v>311.7000427246094</v>
       </c>
       <c r="GM3" t="n">
-        <v>248.8582763671875</v>
+        <v>311.4478759765625</v>
       </c>
       <c r="GN3" t="n">
-        <v>249.1554107666016</v>
+        <v>310.7241516113281</v>
       </c>
       <c r="GO3" t="n">
-        <v>241.0777130126953</v>
+        <v>311.1695861816406</v>
       </c>
       <c r="GP3" t="n">
-        <v>238.8948211669922</v>
+        <v>311.7473754882812</v>
       </c>
       <c r="GQ3" t="n">
-        <v>238.3539428710938</v>
+        <v>314.1058044433594</v>
       </c>
       <c r="GR3" t="n">
-        <v>232.9623107910156</v>
+        <v>312.6046142578125</v>
       </c>
       <c r="GS3" t="n">
-        <v>226.4448699951172</v>
+        <v>310.7749328613281</v>
       </c>
       <c r="GT3" t="n">
-        <v>223.6319274902344</v>
+        <v>311.81640625</v>
       </c>
       <c r="GU3" t="n">
-        <v>223.7670135498047</v>
+        <v>309.4639892578125</v>
       </c>
       <c r="GV3" t="n">
-        <v>227.3202972412109</v>
+        <v>310.9582214355469</v>
       </c>
       <c r="GW3" t="n">
-        <v>227.0952758789062</v>
+        <v>310.8833923339844</v>
       </c>
       <c r="GX3" t="n">
-        <v>225.1310882568359</v>
+        <v>311.0846862792969</v>
       </c>
       <c r="GY3" t="n">
-        <v>227.3732147216797</v>
+        <v>311.3330688476562</v>
       </c>
       <c r="GZ3" t="n">
-        <v>228.2548675537109</v>
+        <v>311.4048461914062</v>
       </c>
       <c r="HA3" t="n">
-        <v>236.3186340332031</v>
+        <v>311.3927612304688</v>
       </c>
       <c r="HB3" t="n">
-        <v>247.9714050292969</v>
+        <v>309.9419250488281</v>
       </c>
       <c r="HC3" t="n">
-        <v>256.3110656738281</v>
+        <v>308.2386169433594</v>
       </c>
       <c r="HD3" t="n">
-        <v>256.7777099609375</v>
+        <v>308.7827758789062</v>
       </c>
       <c r="HE3" t="n">
-        <v>258.0533447265625</v>
+        <v>307.8091430664062</v>
       </c>
       <c r="HF3" t="n">
-        <v>260.1311645507812</v>
+        <v>308.1205139160156</v>
       </c>
       <c r="HG3" t="n">
-        <v>259.8752746582031</v>
+        <v>307.0908203125</v>
       </c>
       <c r="HH3" t="n">
-        <v>257.1801147460938</v>
+        <v>306.0956726074219</v>
       </c>
       <c r="HI3" t="n">
-        <v>258.0310363769531</v>
+        <v>306.7427978515625</v>
       </c>
       <c r="HJ3" t="n">
-        <v>259.663818359375</v>
+        <v>308.1554565429688</v>
       </c>
       <c r="HK3" t="n">
-        <v>264.1843566894531</v>
+        <v>308.0413208007812</v>
       </c>
       <c r="HL3" t="n">
-        <v>268.4721984863281</v>
+        <v>309.8495178222656</v>
       </c>
       <c r="HM3" t="n">
-        <v>272.0602722167969</v>
+        <v>312.0162048339844</v>
       </c>
       <c r="HN3" t="n">
-        <v>275.1533813476562</v>
+        <v>315.0774841308594</v>
       </c>
       <c r="HO3" t="n">
-        <v>274.2818908691406</v>
+        <v>315.9030151367188</v>
       </c>
       <c r="HP3" t="n">
-        <v>275.0313110351562</v>
+        <v>316.8253479003906</v>
       </c>
       <c r="HQ3" t="n">
-        <v>279.4105224609375</v>
+        <v>316.4558410644531</v>
       </c>
       <c r="HR3" t="n">
-        <v>281.8375854492188</v>
+        <v>315.2018127441406</v>
       </c>
       <c r="HS3" t="n">
-        <v>271.5126342773438</v>
+        <v>314.225830078125</v>
       </c>
       <c r="HT3" t="n">
-        <v>287.8026428222656</v>
+        <v>313.3457336425781</v>
       </c>
       <c r="HU3" t="n">
-        <v>291.0271301269531</v>
+        <v>312.1319885253906</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>310.7641906738281</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>310.1596069335938</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>310.2230529785156</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>309.9981079101562</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>309.3829345703125</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>309.4598083496094</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>309.4985656738281</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>309.0643005371094</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>307.7459411621094</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>307.9418334960938</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>307.7337341308594</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>307.7985229492188</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>309.3278198242188</v>
+      </c>
+      <c r="II3" t="n">
+        <v>309.9976196289062</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>310.2130126953125</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>309.6095581054688</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>309.5689697265625</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>312.1155090332031</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>313.0282592773438</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>313.3852844238281</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>311.1209411621094</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>310.7966918945312</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>312.91796875</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>313.8322448730469</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>313.124755859375</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>313.8054809570312</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>316.0941467285156</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>316.9350891113281</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>316.5729064941406</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>316.9120788574219</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>317.1785888671875</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>316.75048828125</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>317.423095703125</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>317.2412414550781</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>318.7381896972656</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>319.9113159179688</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>318.6750183105469</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>317.2054443359375</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>317.0404968261719</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>317.3101196289062</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>315.9691467285156</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>314.8063659667969</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>315.4140014648438</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>315.2815856933594</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>314.1120300292969</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>314.2930603027344</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>313.8375854492188</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>313.5993957519531</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>313.4359130859375</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>314.6270446777344</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>315.0919189453125</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>314.7351684570312</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>314.2995910644531</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>313.9645690917969</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>314.0642700195312</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>314.7164611816406</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>315.107177734375</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>314.4721374511719</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>313.9859619140625</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>312.5513000488281</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>308.3457946777344</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>306.7274169921875</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>306.2950134277344</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>305.6934814453125</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>305.3134765625</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>305.2268676757812</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>305.55078125</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>305.6439514160156</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>305.4028015136719</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>303.217529296875</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>294.2998046875</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>286.2613525390625</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>278.5661315917969</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>265.1087036132812</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>261.3688049316406</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>260.7455139160156</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>255.6287384033203</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>254.3939819335938</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>256.1449890136719</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>263.7923278808594</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>261.4300842285156</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>261.6620483398438</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>265.0578918457031</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>273.3505249023438</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>281.3079223632812</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>291.0929565429688</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>305.3480834960938</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>308.7632446289062</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>314.2028503417969</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>316.5165100097656</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>317.0089416503906</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>315.8557739257812</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>315.2227783203125</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>312.9818725585938</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>312.2066345214844</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>309.7606201171875</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>303.8629150390625</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>300.5867919921875</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>300.6703186035156</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>301.24609375</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>301.8932800292969</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>301.2470092773438</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>296.28515625</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>292.1185607910156</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>285.7025756835938</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>276.3762512207031</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>274.6363220214844</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>283.9115295410156</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>279.4984741210938</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>280.5643310546875</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>289.0943298339844</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>291.10888671875</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>287.2846374511719</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>264.8614196777344</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>270.1902465820312</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>287.2424621582031</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>299.5732727050781</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>306.1806945800781</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>322.1269836425781</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>378.9786071777344</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>394.1900329589844</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>394.2336120605469</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>395.68896484375</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>390.7140197753906</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>405.9212951660156</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>427.064697265625</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>429.8604431152344</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>438.6336669921875</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>429.7724914550781</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>406.6112060546875</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>422.90283203125</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>417.1414489746094</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>427.7662658691406</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>425.3426208496094</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>418.2870483398438</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>407.3025512695312</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>403.5132141113281</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>403.9133605957031</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>408.3433837890625</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>411.0137939453125</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>412.283447265625</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>413.0859680175781</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>418.82470703125</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>419.5770568847656</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>417.9647521972656</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>417.5475158691406</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>417.9359741210938</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>421.0798950195312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>660.112060546875</v>
+        <v>807.4793090820312</v>
       </c>
       <c r="B4" t="n">
-        <v>689.70849609375</v>
+        <v>798.01318359375</v>
       </c>
       <c r="C4" t="n">
-        <v>730.5801391601562</v>
+        <v>807.9844970703125</v>
       </c>
       <c r="D4" t="n">
-        <v>774.476806640625</v>
+        <v>827.1556396484375</v>
       </c>
       <c r="E4" t="n">
-        <v>815.5962524414062</v>
+        <v>851.6659545898438</v>
       </c>
       <c r="F4" t="n">
-        <v>860.0092163085938</v>
+        <v>890.30810546875</v>
       </c>
       <c r="G4" t="n">
-        <v>913.9057006835938</v>
+        <v>933.0657958984375</v>
       </c>
       <c r="H4" t="n">
-        <v>979.983642578125</v>
+        <v>975.331787109375</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.143798828125</v>
+        <v>1015.3759765625</v>
       </c>
       <c r="J4" t="n">
-        <v>1071.542602539062</v>
+        <v>1055.165649414062</v>
       </c>
       <c r="K4" t="n">
-        <v>1116.854248046875</v>
+        <v>1093.360717773438</v>
       </c>
       <c r="L4" t="n">
-        <v>1162.104248046875</v>
+        <v>1132.4521484375</v>
       </c>
       <c r="M4" t="n">
-        <v>1203.8486328125</v>
+        <v>1266.4697265625</v>
       </c>
       <c r="N4" t="n">
-        <v>1255.205444335938</v>
+        <v>1286.017211914062</v>
       </c>
       <c r="O4" t="n">
-        <v>1368.298461914062</v>
+        <v>1343.919311523438</v>
       </c>
       <c r="P4" t="n">
-        <v>1410.428466796875</v>
+        <v>1361.432495117188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1447.215942382812</v>
+        <v>1371.954956054688</v>
       </c>
       <c r="R4" t="n">
-        <v>1476.06884765625</v>
+        <v>1391.898803710938</v>
       </c>
       <c r="S4" t="n">
-        <v>1503.769165039062</v>
+        <v>1402.589965820312</v>
       </c>
       <c r="T4" t="n">
-        <v>1536.620361328125</v>
+        <v>1410.822998046875</v>
       </c>
       <c r="U4" t="n">
-        <v>1572.416748046875</v>
+        <v>1427.943359375</v>
       </c>
       <c r="V4" t="n">
-        <v>1602.099609375</v>
+        <v>1434.544921875</v>
       </c>
       <c r="W4" t="n">
-        <v>1632.060913085938</v>
+        <v>1441.3662109375</v>
       </c>
       <c r="X4" t="n">
-        <v>1666.782348632812</v>
+        <v>1444.607666015625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1694.805541992188</v>
+        <v>1437.969970703125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1721.696655273438</v>
+        <v>1438.58740234375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1759.134521484375</v>
+        <v>1440.296508789062</v>
       </c>
       <c r="AB4" t="n">
-        <v>1810.578125</v>
+        <v>1441.36572265625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1845.40234375</v>
+        <v>1441.823608398438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1885.283203125</v>
+        <v>1445.120849609375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1950.9453125</v>
+        <v>1454.076049804688</v>
       </c>
       <c r="AF4" t="n">
-        <v>2012.248901367188</v>
+        <v>1473.913208007812</v>
       </c>
       <c r="AG4" t="n">
-        <v>2046.062866210938</v>
+        <v>1483.587890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2101.09619140625</v>
+        <v>1505.19873046875</v>
       </c>
       <c r="AI4" t="n">
-        <v>2165.457275390625</v>
+        <v>1522.036010742188</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2212.09228515625</v>
+        <v>1533.70556640625</v>
       </c>
       <c r="AK4" t="n">
-        <v>2249.3544921875</v>
+        <v>1536.996704101562</v>
       </c>
       <c r="AL4" t="n">
-        <v>2285.826904296875</v>
+        <v>1533.46630859375</v>
       </c>
       <c r="AM4" t="n">
-        <v>2344.0556640625</v>
+        <v>1526.07568359375</v>
       </c>
       <c r="AN4" t="n">
-        <v>2405.887939453125</v>
+        <v>1518.730834960938</v>
       </c>
       <c r="AO4" t="n">
-        <v>2465.94287109375</v>
+        <v>1511.323974609375</v>
       </c>
       <c r="AP4" t="n">
-        <v>2511.52001953125</v>
+        <v>1503.813232421875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2552.655029296875</v>
+        <v>1498.099731445312</v>
       </c>
       <c r="AR4" t="n">
-        <v>2580.80908203125</v>
+        <v>1496.950805664062</v>
       </c>
       <c r="AS4" t="n">
-        <v>2620.133056640625</v>
+        <v>1493.75537109375</v>
       </c>
       <c r="AT4" t="n">
-        <v>2665.531982421875</v>
+        <v>1489.381225585938</v>
       </c>
       <c r="AU4" t="n">
-        <v>2719.788818359375</v>
+        <v>1483.73828125</v>
       </c>
       <c r="AV4" t="n">
-        <v>2745.338623046875</v>
+        <v>1480.301025390625</v>
       </c>
       <c r="AW4" t="n">
-        <v>2772.329345703125</v>
+        <v>1476.31884765625</v>
       </c>
       <c r="AX4" t="n">
-        <v>2788.968017578125</v>
+        <v>1470.377197265625</v>
       </c>
       <c r="AY4" t="n">
-        <v>2807.5771484375</v>
+        <v>1466.661865234375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2847.20556640625</v>
+        <v>1465.746826171875</v>
       </c>
       <c r="BA4" t="n">
-        <v>2861.416015625</v>
+        <v>1464.269287109375</v>
       </c>
       <c r="BB4" t="n">
-        <v>2878.01953125</v>
+        <v>1461.071533203125</v>
       </c>
       <c r="BC4" t="n">
-        <v>2877.60791015625</v>
+        <v>1456.402099609375</v>
       </c>
       <c r="BD4" t="n">
-        <v>2881.039794921875</v>
+        <v>1447.48291015625</v>
       </c>
       <c r="BE4" t="n">
-        <v>2905.447021484375</v>
+        <v>1436.78271484375</v>
       </c>
       <c r="BF4" t="n">
-        <v>2953.70556640625</v>
+        <v>1427.358764648438</v>
       </c>
       <c r="BG4" t="n">
-        <v>3001.90771484375</v>
+        <v>1417.128662109375</v>
       </c>
       <c r="BH4" t="n">
-        <v>3041.03955078125</v>
+        <v>1408.08349609375</v>
       </c>
       <c r="BI4" t="n">
-        <v>3076.53759765625</v>
+        <v>1398.089721679688</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3070.722412109375</v>
+        <v>1387.896362304688</v>
       </c>
       <c r="BK4" t="n">
-        <v>3109.889404296875</v>
+        <v>1380.04248046875</v>
       </c>
       <c r="BL4" t="n">
-        <v>3112.655517578125</v>
+        <v>1369.954467773438</v>
       </c>
       <c r="BM4" t="n">
-        <v>3118.349365234375</v>
+        <v>1347.520263671875</v>
       </c>
       <c r="BN4" t="n">
-        <v>3148.652099609375</v>
+        <v>1341.180541992188</v>
       </c>
       <c r="BO4" t="n">
-        <v>3188.379638671875</v>
+        <v>1317.881958007812</v>
       </c>
       <c r="BP4" t="n">
-        <v>3184.43798828125</v>
+        <v>1307.561279296875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3196.332763671875</v>
+        <v>1303.158081054688</v>
       </c>
       <c r="BR4" t="n">
-        <v>3255.141845703125</v>
+        <v>1297.436279296875</v>
       </c>
       <c r="BS4" t="n">
-        <v>3294.26953125</v>
+        <v>1289.13525390625</v>
       </c>
       <c r="BT4" t="n">
-        <v>3291.986083984375</v>
+        <v>1284.637939453125</v>
       </c>
       <c r="BU4" t="n">
-        <v>3345.127685546875</v>
+        <v>1280.179931640625</v>
       </c>
       <c r="BV4" t="n">
-        <v>3381.398193359375</v>
+        <v>1280.652587890625</v>
       </c>
       <c r="BW4" t="n">
-        <v>3399.085205078125</v>
+        <v>1280.484252929688</v>
       </c>
       <c r="BX4" t="n">
-        <v>3418.32763671875</v>
+        <v>1280.22021484375</v>
       </c>
       <c r="BY4" t="n">
-        <v>3458.452392578125</v>
+        <v>1279.243408203125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3512.710693359375</v>
+        <v>1278.488647460938</v>
       </c>
       <c r="CA4" t="n">
-        <v>3532.94775390625</v>
+        <v>1277.836059570312</v>
       </c>
       <c r="CB4" t="n">
-        <v>3568.883544921875</v>
+        <v>1276.659423828125</v>
       </c>
       <c r="CC4" t="n">
-        <v>3594.437255859375</v>
+        <v>1275.132446289062</v>
       </c>
       <c r="CD4" t="n">
-        <v>3598.87646484375</v>
+        <v>1273.538940429688</v>
       </c>
       <c r="CE4" t="n">
-        <v>3603.6220703125</v>
+        <v>1269.685302734375</v>
       </c>
       <c r="CF4" t="n">
-        <v>3604.95361328125</v>
+        <v>1266.452880859375</v>
       </c>
       <c r="CG4" t="n">
-        <v>3657.927978515625</v>
+        <v>1264.716064453125</v>
       </c>
       <c r="CH4" t="n">
-        <v>3718.269775390625</v>
+        <v>1262.3427734375</v>
       </c>
       <c r="CI4" t="n">
-        <v>3736.611083984375</v>
+        <v>1259.233642578125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3715.164306640625</v>
+        <v>1257.826049804688</v>
       </c>
       <c r="CK4" t="n">
-        <v>3714.544677734375</v>
+        <v>1256.319213867188</v>
       </c>
       <c r="CL4" t="n">
-        <v>3686.767578125</v>
+        <v>1257.52978515625</v>
       </c>
       <c r="CM4" t="n">
-        <v>3701.05712890625</v>
+        <v>1257.662353515625</v>
       </c>
       <c r="CN4" t="n">
-        <v>3730.0751953125</v>
+        <v>1261.162841796875</v>
       </c>
       <c r="CO4" t="n">
-        <v>3737.379150390625</v>
+        <v>1263.181884765625</v>
       </c>
       <c r="CP4" t="n">
-        <v>3729.551513671875</v>
+        <v>1266.028930664062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3742.49560546875</v>
+        <v>1269.497314453125</v>
       </c>
       <c r="CR4" t="n">
-        <v>3725.49365234375</v>
+        <v>1272.304931640625</v>
       </c>
       <c r="CS4" t="n">
-        <v>3719.55908203125</v>
+        <v>1271.704345703125</v>
       </c>
       <c r="CT4" t="n">
-        <v>3711.9599609375</v>
+        <v>1269.960815429688</v>
       </c>
       <c r="CU4" t="n">
-        <v>3681.8056640625</v>
+        <v>1270.860961914062</v>
       </c>
       <c r="CV4" t="n">
-        <v>3633.6162109375</v>
+        <v>1271.540771484375</v>
       </c>
       <c r="CW4" t="n">
-        <v>3627.82763671875</v>
+        <v>1273.70361328125</v>
       </c>
       <c r="CX4" t="n">
-        <v>3736.648681640625</v>
+        <v>1287.27099609375</v>
       </c>
       <c r="CY4" t="n">
-        <v>3682.73681640625</v>
+        <v>1300.834228515625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3699.692138671875</v>
+        <v>1303.170776367188</v>
       </c>
       <c r="DA4" t="n">
-        <v>3688.163330078125</v>
+        <v>1308.438598632812</v>
       </c>
       <c r="DB4" t="n">
-        <v>3708.9404296875</v>
+        <v>1312.471313476562</v>
       </c>
       <c r="DC4" t="n">
-        <v>3715.28173828125</v>
+        <v>1317.1669921875</v>
       </c>
       <c r="DD4" t="n">
-        <v>3721.71923828125</v>
+        <v>1315.46044921875</v>
       </c>
       <c r="DE4" t="n">
-        <v>3584.24755859375</v>
+        <v>1315.033203125</v>
       </c>
       <c r="DF4" t="n">
-        <v>3715.7412109375</v>
+        <v>1314.805053710938</v>
       </c>
       <c r="DG4" t="n">
-        <v>3671.352294921875</v>
+        <v>1314.303833007812</v>
       </c>
       <c r="DH4" t="n">
-        <v>3655.620849609375</v>
+        <v>1314.844482421875</v>
       </c>
       <c r="DI4" t="n">
-        <v>3662.705322265625</v>
+        <v>1313.4326171875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3651.5224609375</v>
+        <v>1306.99560546875</v>
       </c>
       <c r="DK4" t="n">
-        <v>3713.7783203125</v>
+        <v>1288.065307617188</v>
       </c>
       <c r="DL4" t="n">
-        <v>3707.2958984375</v>
+        <v>1275.880737304688</v>
       </c>
       <c r="DM4" t="n">
-        <v>3704.195068359375</v>
+        <v>1273.533447265625</v>
       </c>
       <c r="DN4" t="n">
-        <v>3663.622314453125</v>
+        <v>1273.8740234375</v>
       </c>
       <c r="DO4" t="n">
-        <v>3683.098388671875</v>
+        <v>1273.640502929688</v>
       </c>
       <c r="DP4" t="n">
-        <v>3706.331298828125</v>
+        <v>1273.033935546875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3633.44775390625</v>
+        <v>1267.36474609375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3615.04052734375</v>
+        <v>1262.721069335938</v>
       </c>
       <c r="DS4" t="n">
-        <v>3625.164794921875</v>
+        <v>1258.3291015625</v>
       </c>
       <c r="DT4" t="n">
-        <v>3652.892578125</v>
+        <v>1264.75244140625</v>
       </c>
       <c r="DU4" t="n">
-        <v>3714.781494140625</v>
+        <v>1291.786987304688</v>
       </c>
       <c r="DV4" t="n">
-        <v>3633.20849609375</v>
+        <v>1293.766723632812</v>
       </c>
       <c r="DW4" t="n">
-        <v>3640.811767578125</v>
+        <v>1293.717407226562</v>
       </c>
       <c r="DX4" t="n">
-        <v>3666.0107421875</v>
+        <v>1295.693359375</v>
       </c>
       <c r="DY4" t="n">
-        <v>3629.809814453125</v>
+        <v>1301.412231445312</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3622.84228515625</v>
+        <v>1331.231811523438</v>
       </c>
       <c r="EA4" t="n">
-        <v>3643.1298828125</v>
+        <v>1344.190795898438</v>
       </c>
       <c r="EB4" t="n">
-        <v>3665.761962890625</v>
+        <v>1363.996459960938</v>
       </c>
       <c r="EC4" t="n">
-        <v>3640.966064453125</v>
+        <v>1366.340454101562</v>
       </c>
       <c r="ED4" t="n">
-        <v>3611.253662109375</v>
+        <v>1369.35009765625</v>
       </c>
       <c r="EE4" t="n">
-        <v>3630.40966796875</v>
+        <v>1384.46826171875</v>
       </c>
       <c r="EF4" t="n">
-        <v>3649.19921875</v>
+        <v>1415.535888671875</v>
       </c>
       <c r="EG4" t="n">
-        <v>3637.674072265625</v>
+        <v>1457.558349609375</v>
       </c>
       <c r="EH4" t="n">
-        <v>3624.777099609375</v>
+        <v>1470.602661132812</v>
       </c>
       <c r="EI4" t="n">
-        <v>3643.975830078125</v>
+        <v>1490.76708984375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3592.220703125</v>
+        <v>1506.03515625</v>
       </c>
       <c r="EK4" t="n">
-        <v>3593.94580078125</v>
+        <v>1547.427490234375</v>
       </c>
       <c r="EL4" t="n">
-        <v>3571.842041015625</v>
+        <v>1561.478149414062</v>
       </c>
       <c r="EM4" t="n">
-        <v>3485.61572265625</v>
+        <v>1573.293701171875</v>
       </c>
       <c r="EN4" t="n">
-        <v>3536.063720703125</v>
+        <v>1584.47607421875</v>
       </c>
       <c r="EO4" t="n">
-        <v>3568.73681640625</v>
+        <v>1601.934448242188</v>
       </c>
       <c r="EP4" t="n">
-        <v>3556.609375</v>
+        <v>1610.310913085938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3453.06591796875</v>
+        <v>1630.870239257812</v>
       </c>
       <c r="ER4" t="n">
-        <v>3434.99267578125</v>
+        <v>1640.687622070312</v>
       </c>
       <c r="ES4" t="n">
-        <v>3450.821533203125</v>
+        <v>1668.598510742188</v>
       </c>
       <c r="ET4" t="n">
-        <v>3422.105712890625</v>
+        <v>1665.838989257812</v>
       </c>
       <c r="EU4" t="n">
-        <v>3438.416015625</v>
+        <v>1667.45849609375</v>
       </c>
       <c r="EV4" t="n">
-        <v>3464.865966796875</v>
+        <v>1676.019775390625</v>
       </c>
       <c r="EW4" t="n">
-        <v>3450.732421875</v>
+        <v>1721.135131835938</v>
       </c>
       <c r="EX4" t="n">
-        <v>3480.119140625</v>
+        <v>1779.256225585938</v>
       </c>
       <c r="EY4" t="n">
-        <v>3486.5380859375</v>
+        <v>1827.309204101562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3514.443359375</v>
+        <v>1844.755126953125</v>
       </c>
       <c r="FA4" t="n">
-        <v>3499.052001953125</v>
+        <v>1884.545288085938</v>
       </c>
       <c r="FB4" t="n">
-        <v>3453.314697265625</v>
+        <v>1909.373046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>3558.731689453125</v>
+        <v>1980.189575195312</v>
       </c>
       <c r="FD4" t="n">
-        <v>3476.63916015625</v>
+        <v>2003.989135742188</v>
       </c>
       <c r="FE4" t="n">
-        <v>3417.413330078125</v>
+        <v>2025.228271484375</v>
       </c>
       <c r="FF4" t="n">
-        <v>3394.07373046875</v>
+        <v>2035.462036132812</v>
       </c>
       <c r="FG4" t="n">
-        <v>3436.97412109375</v>
+        <v>2089.696044921875</v>
       </c>
       <c r="FH4" t="n">
-        <v>3541.1796875</v>
+        <v>2124.3466796875</v>
       </c>
       <c r="FI4" t="n">
-        <v>3600.544921875</v>
+        <v>2190.865478515625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3529.072265625</v>
+        <v>2214.518798828125</v>
       </c>
       <c r="FK4" t="n">
-        <v>3464.733642578125</v>
+        <v>2232.316650390625</v>
       </c>
       <c r="FL4" t="n">
-        <v>3453.4111328125</v>
+        <v>2265.2744140625</v>
       </c>
       <c r="FM4" t="n">
-        <v>3475.86279296875</v>
+        <v>2300.1953125</v>
       </c>
       <c r="FN4" t="n">
-        <v>3336.339111328125</v>
+        <v>2334.7275390625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3524.511474609375</v>
+        <v>2347.5556640625</v>
       </c>
       <c r="FP4" t="n">
-        <v>3484.82861328125</v>
+        <v>2362.296142578125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3433.736572265625</v>
+        <v>2400.926025390625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3504.900146484375</v>
+        <v>2426.2216796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>3505.19873046875</v>
+        <v>2434.875244140625</v>
       </c>
       <c r="FT4" t="n">
-        <v>3500.713134765625</v>
+        <v>2461.7021484375</v>
       </c>
       <c r="FU4" t="n">
-        <v>3495.25634765625</v>
+        <v>2474.940673828125</v>
       </c>
       <c r="FV4" t="n">
-        <v>3508.51416015625</v>
+        <v>2478.547607421875</v>
       </c>
       <c r="FW4" t="n">
-        <v>3369.50439453125</v>
+        <v>2467.172119140625</v>
       </c>
       <c r="FX4" t="n">
-        <v>3528.612060546875</v>
+        <v>2469.128662109375</v>
       </c>
       <c r="FY4" t="n">
-        <v>3472.34619140625</v>
+        <v>2462.78662109375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3532.396240234375</v>
+        <v>2439.85791015625</v>
       </c>
       <c r="GA4" t="n">
-        <v>3416.65576171875</v>
+        <v>2433.33740234375</v>
       </c>
       <c r="GB4" t="n">
-        <v>3367.616943359375</v>
+        <v>2429.850341796875</v>
       </c>
       <c r="GC4" t="n">
-        <v>3264.10302734375</v>
+        <v>2432.56689453125</v>
       </c>
       <c r="GD4" t="n">
-        <v>3232.953125</v>
+        <v>2434.001220703125</v>
       </c>
       <c r="GE4" t="n">
-        <v>3220.927001953125</v>
+        <v>2426.642333984375</v>
       </c>
       <c r="GF4" t="n">
-        <v>3168.580810546875</v>
+        <v>2426.318603515625</v>
       </c>
       <c r="GG4" t="n">
-        <v>3108.132568359375</v>
+        <v>2427.98681640625</v>
       </c>
       <c r="GH4" t="n">
-        <v>3094.4072265625</v>
+        <v>2430.1591796875</v>
       </c>
       <c r="GI4" t="n">
-        <v>3075.498779296875</v>
+        <v>2429.570556640625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>3030.61962890625</v>
+        <v>2428.414794921875</v>
       </c>
       <c r="GK4" t="n">
-        <v>3010.487060546875</v>
+        <v>2426.984619140625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2952.9912109375</v>
+        <v>2414.94921875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2948.7998046875</v>
+        <v>2387.948486328125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2918.638916015625</v>
+        <v>2400.863037109375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2900.5908203125</v>
+        <v>2400.252685546875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2821.77099609375</v>
+        <v>2381.572509765625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2805.83251953125</v>
+        <v>2372.43115234375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2805.41748046875</v>
+        <v>2385.738037109375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2742.115966796875</v>
+        <v>2344.365478515625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2691.6669921875</v>
+        <v>2313.48486328125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2576.536376953125</v>
+        <v>2332.7646484375</v>
       </c>
       <c r="GV4" t="n">
-        <v>2486.03515625</v>
+        <v>2284.66015625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2419.5029296875</v>
+        <v>2282.345703125</v>
       </c>
       <c r="GX4" t="n">
-        <v>2290.293212890625</v>
+        <v>2281.322998046875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2208.65576171875</v>
+        <v>2282.42236328125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2141.548095703125</v>
+        <v>2284.530517578125</v>
       </c>
       <c r="HA4" t="n">
-        <v>2000.216186523438</v>
+        <v>2277.24609375</v>
       </c>
       <c r="HB4" t="n">
-        <v>1910.23388671875</v>
+        <v>2277.8056640625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1848.619018554688</v>
+        <v>2244.930908203125</v>
       </c>
       <c r="HD4" t="n">
-        <v>1812.812255859375</v>
+        <v>2307.91943359375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1796.455688476562</v>
+        <v>2262.74755859375</v>
       </c>
       <c r="HF4" t="n">
-        <v>1736.683349609375</v>
+        <v>2263.1611328125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1679.484252929688</v>
+        <v>2272.2822265625</v>
       </c>
       <c r="HH4" t="n">
-        <v>1617.727416992188</v>
+        <v>2320.36474609375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1543.030883789062</v>
+        <v>2289.571044921875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1484.108520507812</v>
+        <v>2292.63671875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1399.766235351562</v>
+        <v>2291.37939453125</v>
       </c>
       <c r="HL4" t="n">
-        <v>1319.55517578125</v>
+        <v>2309.909912109375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1232.718139648438</v>
+        <v>2300.310791015625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1117.23828125</v>
+        <v>2298.329345703125</v>
       </c>
       <c r="HO4" t="n">
-        <v>1045.417602539062</v>
+        <v>2285.2861328125</v>
       </c>
       <c r="HP4" t="n">
-        <v>992.251953125</v>
+        <v>2287.68115234375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>974.208740234375</v>
+        <v>2287.9091796875</v>
       </c>
       <c r="HR4" t="n">
-        <v>948.005126953125</v>
+        <v>2283.29541015625</v>
       </c>
       <c r="HS4" t="n">
-        <v>921.7686157226562</v>
+        <v>2251.344482421875</v>
       </c>
       <c r="HT4" t="n">
-        <v>872.740234375</v>
+        <v>2244.576171875</v>
       </c>
       <c r="HU4" t="n">
-        <v>773.2760009765625</v>
+        <v>2233.08447265625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2228.5517578125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2223.525634765625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2219.255859375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2218.87841796875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2218.214111328125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2213.133544921875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2209.427734375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2208.6298828125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2208.115234375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2208.2119140625</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2208.30126953125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2208.920654296875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2208.513427734375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2233.25439453125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2242.553955078125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2266.265869140625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2277.7734375</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2256.93603515625</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2254.254638671875</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2261.250732421875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2274.795654296875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2261.160888671875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2260.022216796875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2257.318115234375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2273.51904296875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2280.226318359375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2281.16943359375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2287.50048828125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2287.130859375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2293.865234375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2292.43896484375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2304.123046875</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2308.3505859375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2291.051025390625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2285.83984375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2296.74267578125</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2283.32421875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2287.35009765625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2289.124755859375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2287.734130859375</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2283.96044921875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2283.156005859375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2269.339111328125</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2239.989013671875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2225.5537109375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2220.40771484375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2227.6708984375</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2243.268310546875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2238.022705078125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2210.560791015625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2206.843505859375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2203.89111328125</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2200.00146484375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2192.8212890625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2188.921142578125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2188.76513671875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2193.73974609375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2219.000732421875</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2229.405029296875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2241.203369140625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2255.517333984375</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2257.360107421875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2258.60595703125</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2261.853271484375</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2265.9501953125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2270.968505859375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2270.87548828125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2272.8994140625</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2281.30419921875</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2310.35693359375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2348.826416015625</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2349.158935546875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2344.2626953125</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2338.075927734375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2345.33837890625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2346.670166015625</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2343.3291015625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2349.24560546875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2314.499267578125</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2298.101806640625</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2288.60888671875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2287.3046875</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2276.39208984375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2226.458984375</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2189.0009765625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2189.3486328125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2118.5419921875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2061.730712890625</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>1993.842041015625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1977.852661132812</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1909.228271484375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1841.789672851562</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1752.944213867188</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1709.61865234375</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1665.967651367188</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1622.976440429688</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1584.044555664062</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1538.794555664062</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1477.091918945312</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1401.873657226562</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1353.19921875</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1297.763305664062</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1216.84521484375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>1164.880981445312</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>1110.032958984375</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>1063.936279296875</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>1049.365112304688</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>917.5341796875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>892.537841796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>865.9955444335938</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>846.7354736328125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>836.8984375</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>849.3300170898438</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>986.9458618164062</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>998.4434814453125</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>1005.878967285156</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>1016.550964355469</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>1048.088989257812</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>1074.592407226562</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>1037.832641601562</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>1061.888427734375</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>1136.48291015625</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>1161.753173828125</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>1183.389038085938</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>1154.922119140625</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>1079.412963867188</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>974.6473388671875</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>915.3219604492188</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>887.25048828125</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>849.838134765625</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>811.3321533203125</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>807.7110595703125</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>799.4186401367188</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>797.2271728515625</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>799.9863891601562</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>801.2530517578125</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>801.5248413085938</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>802.8471069335938</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>807.1531372070312</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>809.4411010742188</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>819.4188842773438</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>834.963134765625</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>835.5661010742188</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>840.6146240234375</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>846.514892578125</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>846.5320434570312</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>840.2122192382812</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>820.9197387695312</v>
       </c>
     </row>
   </sheetData>

--- a/right_elbow_Data_Variable.xlsx
+++ b/right_elbow_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250.0462341308594</v>
+        <v>200.7770080566406</v>
       </c>
       <c r="B2" t="n">
-        <v>255.1357727050781</v>
+        <v>204.9889984130859</v>
       </c>
       <c r="C2" t="n">
-        <v>258.2962646484375</v>
+        <v>206.7779693603516</v>
       </c>
       <c r="D2" t="n">
-        <v>261.2044067382812</v>
+        <v>209.7644653320312</v>
       </c>
       <c r="E2" t="n">
-        <v>265.7040405273438</v>
+        <v>212.9922180175781</v>
       </c>
       <c r="F2" t="n">
-        <v>273.5945739746094</v>
+        <v>219.1995849609375</v>
       </c>
       <c r="G2" t="n">
-        <v>283.3368225097656</v>
+        <v>225.5770568847656</v>
       </c>
       <c r="H2" t="n">
-        <v>293.0408020019531</v>
+        <v>232.0847778320312</v>
       </c>
       <c r="I2" t="n">
-        <v>302.840087890625</v>
+        <v>236.4996490478516</v>
       </c>
       <c r="J2" t="n">
-        <v>315.05859375</v>
+        <v>244.7386474609375</v>
       </c>
       <c r="K2" t="n">
-        <v>324.9535827636719</v>
+        <v>250.09716796875</v>
       </c>
       <c r="L2" t="n">
-        <v>335.22021484375</v>
+        <v>257.2906799316406</v>
       </c>
       <c r="M2" t="n">
-        <v>354.9720458984375</v>
+        <v>234.5307312011719</v>
       </c>
       <c r="N2" t="n">
-        <v>356.8566589355469</v>
+        <v>243.7940673828125</v>
       </c>
       <c r="O2" t="n">
-        <v>352.9785766601562</v>
+        <v>285.6144104003906</v>
       </c>
       <c r="P2" t="n">
-        <v>352.8128662109375</v>
+        <v>288.21875</v>
       </c>
       <c r="Q2" t="n">
-        <v>351.31591796875</v>
+        <v>288.5235900878906</v>
       </c>
       <c r="R2" t="n">
-        <v>349.3255615234375</v>
+        <v>288.4893188476562</v>
       </c>
       <c r="S2" t="n">
-        <v>346.8811645507812</v>
+        <v>288.7936706542969</v>
       </c>
       <c r="T2" t="n">
-        <v>345.3081665039062</v>
+        <v>289.0625610351562</v>
       </c>
       <c r="U2" t="n">
-        <v>341.8399047851562</v>
+        <v>289.2257385253906</v>
       </c>
       <c r="V2" t="n">
-        <v>335.6917114257812</v>
+        <v>289.1936645507812</v>
       </c>
       <c r="W2" t="n">
-        <v>332.4784851074219</v>
+        <v>288.6047973632812</v>
       </c>
       <c r="X2" t="n">
-        <v>329.8030090332031</v>
+        <v>286.8352966308594</v>
       </c>
       <c r="Y2" t="n">
-        <v>330.69921875</v>
+        <v>283.8940734863281</v>
       </c>
       <c r="Z2" t="n">
-        <v>328.4838562011719</v>
+        <v>283.0975036621094</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.9051513671875</v>
+        <v>282.7378540039062</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.01416015625</v>
+        <v>281.5212097167969</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.531494140625</v>
+        <v>279.5924072265625</v>
       </c>
       <c r="AD2" t="n">
-        <v>319.9243469238281</v>
+        <v>280.2491455078125</v>
       </c>
       <c r="AE2" t="n">
-        <v>318.9157104492188</v>
+        <v>280.416015625</v>
       </c>
       <c r="AF2" t="n">
-        <v>317.5615234375</v>
+        <v>280.8386840820312</v>
       </c>
       <c r="AG2" t="n">
-        <v>315.8076782226562</v>
+        <v>280.896240234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>315.711669921875</v>
+        <v>281.007080078125</v>
       </c>
       <c r="AI2" t="n">
-        <v>315.7949523925781</v>
+        <v>280.5284423828125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>315.8416748046875</v>
+        <v>280.2203369140625</v>
       </c>
       <c r="AK2" t="n">
-        <v>315.8067626953125</v>
+        <v>279.6870422363281</v>
       </c>
       <c r="AL2" t="n">
-        <v>315.4776916503906</v>
+        <v>279.1988220214844</v>
       </c>
       <c r="AM2" t="n">
-        <v>314.5285949707031</v>
+        <v>279.9170227050781</v>
       </c>
       <c r="AN2" t="n">
-        <v>312.4376220703125</v>
+        <v>280.0704956054688</v>
       </c>
       <c r="AO2" t="n">
-        <v>311.2444458007812</v>
+        <v>280.4158935546875</v>
       </c>
       <c r="AP2" t="n">
-        <v>310.5994262695312</v>
+        <v>280.9956665039062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>310.4664001464844</v>
+        <v>281.7116394042969</v>
       </c>
       <c r="AR2" t="n">
-        <v>310.41064453125</v>
+        <v>282.7657470703125</v>
       </c>
       <c r="AS2" t="n">
-        <v>310.269287109375</v>
+        <v>283.3501586914062</v>
       </c>
       <c r="AT2" t="n">
-        <v>310.007080078125</v>
+        <v>283.36376953125</v>
       </c>
       <c r="AU2" t="n">
-        <v>309.6255493164062</v>
+        <v>283.5411071777344</v>
       </c>
       <c r="AV2" t="n">
-        <v>309.19873046875</v>
+        <v>283.6895751953125</v>
       </c>
       <c r="AW2" t="n">
-        <v>308.572021484375</v>
+        <v>283.8586120605469</v>
       </c>
       <c r="AX2" t="n">
-        <v>307.2293701171875</v>
+        <v>283.7025451660156</v>
       </c>
       <c r="AY2" t="n">
-        <v>303.8577270507812</v>
+        <v>283.6519775390625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>299.9511413574219</v>
+        <v>283.1907653808594</v>
       </c>
       <c r="BA2" t="n">
-        <v>296.185791015625</v>
+        <v>281.1861572265625</v>
       </c>
       <c r="BB2" t="n">
-        <v>290.5977172851562</v>
+        <v>274.8834838867188</v>
       </c>
       <c r="BC2" t="n">
-        <v>284.7477416992188</v>
+        <v>295.897216796875</v>
       </c>
       <c r="BD2" t="n">
-        <v>280.7089538574219</v>
+        <v>295.9451293945312</v>
       </c>
       <c r="BE2" t="n">
-        <v>276.2555847167969</v>
+        <v>296.2880859375</v>
       </c>
       <c r="BF2" t="n">
-        <v>273.0806884765625</v>
+        <v>296.8583374023438</v>
       </c>
       <c r="BG2" t="n">
-        <v>270.694580078125</v>
+        <v>297.4335021972656</v>
       </c>
       <c r="BH2" t="n">
-        <v>267.7044677734375</v>
+        <v>297.9013977050781</v>
       </c>
       <c r="BI2" t="n">
-        <v>265.4194030761719</v>
+        <v>298.1111450195312</v>
       </c>
       <c r="BJ2" t="n">
-        <v>262.5471801757812</v>
+        <v>298.1227722167969</v>
       </c>
       <c r="BK2" t="n">
-        <v>259.0094299316406</v>
+        <v>297.9713134765625</v>
       </c>
       <c r="BL2" t="n">
-        <v>255.0642547607422</v>
+        <v>297.9778137207031</v>
       </c>
       <c r="BM2" t="n">
-        <v>251.2044372558594</v>
+        <v>297.9844360351562</v>
       </c>
       <c r="BN2" t="n">
-        <v>247.5969696044922</v>
+        <v>297.9365844726562</v>
       </c>
       <c r="BO2" t="n">
-        <v>242.5608978271484</v>
+        <v>297.8921813964844</v>
       </c>
       <c r="BP2" t="n">
-        <v>240.2708282470703</v>
+        <v>297.8856811523438</v>
       </c>
       <c r="BQ2" t="n">
-        <v>236.3781890869141</v>
+        <v>297.8386535644531</v>
       </c>
       <c r="BR2" t="n">
-        <v>231.4947814941406</v>
+        <v>297.7790222167969</v>
       </c>
       <c r="BS2" t="n">
-        <v>228.1993408203125</v>
+        <v>297.734130859375</v>
       </c>
       <c r="BT2" t="n">
-        <v>226.4085388183594</v>
+        <v>297.6923217773438</v>
       </c>
       <c r="BU2" t="n">
-        <v>224.6743774414062</v>
+        <v>297.8453369140625</v>
       </c>
       <c r="BV2" t="n">
-        <v>224.5162963867188</v>
+        <v>298.1386108398438</v>
       </c>
       <c r="BW2" t="n">
-        <v>224.291015625</v>
+        <v>258.4639282226562</v>
       </c>
       <c r="BX2" t="n">
-        <v>224.2890625</v>
+        <v>252.62744140625</v>
       </c>
       <c r="BY2" t="n">
-        <v>224.5252685546875</v>
+        <v>248.7856140136719</v>
       </c>
       <c r="BZ2" t="n">
-        <v>224.5616455078125</v>
+        <v>246.1070404052734</v>
       </c>
       <c r="CA2" t="n">
-        <v>224.7111206054688</v>
+        <v>244.2253265380859</v>
       </c>
       <c r="CB2" t="n">
-        <v>225.5873260498047</v>
+        <v>244.5723876953125</v>
       </c>
       <c r="CC2" t="n">
-        <v>227.7626190185547</v>
+        <v>243.2980041503906</v>
       </c>
       <c r="CD2" t="n">
-        <v>234.1845855712891</v>
+        <v>241.9505004882812</v>
       </c>
       <c r="CE2" t="n">
-        <v>243.8929443359375</v>
+        <v>240.6452026367188</v>
       </c>
       <c r="CF2" t="n">
-        <v>247.8809356689453</v>
+        <v>240.02392578125</v>
       </c>
       <c r="CG2" t="n">
-        <v>252.8622741699219</v>
+        <v>239.4865112304688</v>
       </c>
       <c r="CH2" t="n">
-        <v>256.4890747070312</v>
+        <v>239.0428924560547</v>
       </c>
       <c r="CI2" t="n">
-        <v>261.6951599121094</v>
+        <v>238.6776428222656</v>
       </c>
       <c r="CJ2" t="n">
-        <v>265.9139404296875</v>
+        <v>238.57958984375</v>
       </c>
       <c r="CK2" t="n">
-        <v>270.1721801757812</v>
+        <v>238.5380401611328</v>
       </c>
       <c r="CL2" t="n">
-        <v>274.4745178222656</v>
+        <v>238.5494689941406</v>
       </c>
       <c r="CM2" t="n">
-        <v>276.6520080566406</v>
+        <v>238.7348937988281</v>
       </c>
       <c r="CN2" t="n">
-        <v>281.8998107910156</v>
+        <v>239.1887054443359</v>
       </c>
       <c r="CO2" t="n">
-        <v>282.3578491210938</v>
+        <v>239.5935211181641</v>
       </c>
       <c r="CP2" t="n">
-        <v>283.0670471191406</v>
+        <v>239.5902099609375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>283.380126953125</v>
+        <v>239.8334503173828</v>
       </c>
       <c r="CR2" t="n">
-        <v>282.4810791015625</v>
+        <v>240.0068359375</v>
       </c>
       <c r="CS2" t="n">
-        <v>275.7262573242188</v>
+        <v>240.150634765625</v>
       </c>
       <c r="CT2" t="n">
-        <v>263.2023010253906</v>
+        <v>240.7614440917969</v>
       </c>
       <c r="CU2" t="n">
-        <v>259.6892700195312</v>
+        <v>241.8040161132812</v>
       </c>
       <c r="CV2" t="n">
-        <v>252.5944366455078</v>
+        <v>242.3992156982422</v>
       </c>
       <c r="CW2" t="n">
-        <v>245.0371551513672</v>
+        <v>242.6574859619141</v>
       </c>
       <c r="CX2" t="n">
-        <v>235.733154296875</v>
+        <v>243.72900390625</v>
       </c>
       <c r="CY2" t="n">
-        <v>232.3645324707031</v>
+        <v>248.0279235839844</v>
       </c>
       <c r="CZ2" t="n">
-        <v>222.9208679199219</v>
+        <v>249.9816741943359</v>
       </c>
       <c r="DA2" t="n">
-        <v>221.3084564208984</v>
+        <v>257.0732727050781</v>
       </c>
       <c r="DB2" t="n">
-        <v>219.8704528808594</v>
+        <v>262.9673461914062</v>
       </c>
       <c r="DC2" t="n">
-        <v>216.8577270507812</v>
+        <v>265.2725219726562</v>
       </c>
       <c r="DD2" t="n">
-        <v>211.9572143554688</v>
+        <v>266.53759765625</v>
       </c>
       <c r="DE2" t="n">
-        <v>204.6119995117188</v>
+        <v>297.2184143066406</v>
       </c>
       <c r="DF2" t="n">
-        <v>199.3864135742188</v>
+        <v>297.8206176757812</v>
       </c>
       <c r="DG2" t="n">
-        <v>196.12646484375</v>
+        <v>298.1876220703125</v>
       </c>
       <c r="DH2" t="n">
-        <v>191.0890350341797</v>
+        <v>299.0552368164062</v>
       </c>
       <c r="DI2" t="n">
-        <v>188.805908203125</v>
+        <v>299.2088317871094</v>
       </c>
       <c r="DJ2" t="n">
-        <v>185.2561187744141</v>
+        <v>299.2495727539062</v>
       </c>
       <c r="DK2" t="n">
-        <v>181.3981781005859</v>
+        <v>282.9407653808594</v>
       </c>
       <c r="DL2" t="n">
-        <v>179.5664367675781</v>
+        <v>283.7530212402344</v>
       </c>
       <c r="DM2" t="n">
-        <v>181.3784790039062</v>
+        <v>285.2702941894531</v>
       </c>
       <c r="DN2" t="n">
-        <v>182.2232818603516</v>
+        <v>287.5191955566406</v>
       </c>
       <c r="DO2" t="n">
-        <v>183.7785491943359</v>
+        <v>288.1484985351562</v>
       </c>
       <c r="DP2" t="n">
-        <v>188.2191162109375</v>
+        <v>287.6575622558594</v>
       </c>
       <c r="DQ2" t="n">
-        <v>204.5245666503906</v>
+        <v>286.8135375976562</v>
       </c>
       <c r="DR2" t="n">
-        <v>214.6001586914062</v>
+        <v>286.6896667480469</v>
       </c>
       <c r="DS2" t="n">
-        <v>221.1377105712891</v>
+        <v>286.8020935058594</v>
       </c>
       <c r="DT2" t="n">
-        <v>236.7323608398438</v>
+        <v>287.2892456054688</v>
       </c>
       <c r="DU2" t="n">
-        <v>250.6905364990234</v>
+        <v>287.2507629394531</v>
       </c>
       <c r="DV2" t="n">
-        <v>253.2775573730469</v>
+        <v>287.1828002929688</v>
       </c>
       <c r="DW2" t="n">
-        <v>259.8987426757812</v>
+        <v>287.1741638183594</v>
       </c>
       <c r="DX2" t="n">
-        <v>261.5746459960938</v>
+        <v>287.2495422363281</v>
       </c>
       <c r="DY2" t="n">
-        <v>262.8199157714844</v>
+        <v>287.5883483886719</v>
       </c>
       <c r="DZ2" t="n">
-        <v>268.8638610839844</v>
+        <v>286.7453918457031</v>
       </c>
       <c r="EA2" t="n">
-        <v>272.2080688476562</v>
+        <v>285.4233093261719</v>
       </c>
       <c r="EB2" t="n">
-        <v>280.9767456054688</v>
+        <v>283.2497863769531</v>
       </c>
       <c r="EC2" t="n">
-        <v>283.6119079589844</v>
+        <v>282.8449096679688</v>
       </c>
       <c r="ED2" t="n">
-        <v>288.5655822753906</v>
+        <v>282.1631774902344</v>
       </c>
       <c r="EE2" t="n">
-        <v>299.8045043945312</v>
+        <v>281.9465942382812</v>
       </c>
       <c r="EF2" t="n">
-        <v>313.6324768066406</v>
+        <v>279.5597534179688</v>
       </c>
       <c r="EG2" t="n">
-        <v>332.1205139160156</v>
+        <v>276.8014221191406</v>
       </c>
       <c r="EH2" t="n">
-        <v>338.8898315429688</v>
+        <v>274.9006958007812</v>
       </c>
       <c r="EI2" t="n">
-        <v>354.1076965332031</v>
+        <v>274.8659362792969</v>
       </c>
       <c r="EJ2" t="n">
-        <v>360.7362365722656</v>
+        <v>274.3211975097656</v>
       </c>
       <c r="EK2" t="n">
-        <v>373.2021484375</v>
+        <v>273.5199890136719</v>
       </c>
       <c r="EL2" t="n">
-        <v>374.8251037597656</v>
+        <v>274.9883422851562</v>
       </c>
       <c r="EM2" t="n">
-        <v>376.4158325195312</v>
+        <v>276.8988647460938</v>
       </c>
       <c r="EN2" t="n">
-        <v>378.4240417480469</v>
+        <v>279.6588134765625</v>
       </c>
       <c r="EO2" t="n">
-        <v>384.4627380371094</v>
+        <v>281.7672729492188</v>
       </c>
       <c r="EP2" t="n">
-        <v>383.5281982421875</v>
+        <v>283.0155639648438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>380.5864868164062</v>
+        <v>282.5237426757812</v>
       </c>
       <c r="ER2" t="n">
-        <v>380.7876892089844</v>
+        <v>282.7192077636719</v>
       </c>
       <c r="ES2" t="n">
-        <v>381.2998046875</v>
+        <v>282.5987243652344</v>
       </c>
       <c r="ET2" t="n">
-        <v>384.1021423339844</v>
+        <v>282.6595458984375</v>
       </c>
       <c r="EU2" t="n">
-        <v>387.1734924316406</v>
+        <v>282.6671752929688</v>
       </c>
       <c r="EV2" t="n">
-        <v>392.5977783203125</v>
+        <v>282.8361511230469</v>
       </c>
       <c r="EW2" t="n">
-        <v>398.3246154785156</v>
+        <v>282.8101196289062</v>
       </c>
       <c r="EX2" t="n">
-        <v>400.587890625</v>
+        <v>282.7145080566406</v>
       </c>
       <c r="EY2" t="n">
-        <v>400.3155517578125</v>
+        <v>282.7567138671875</v>
       </c>
       <c r="EZ2" t="n">
-        <v>400.2142333984375</v>
+        <v>282.7740478515625</v>
       </c>
       <c r="FA2" t="n">
-        <v>402.577392578125</v>
+        <v>282.5776977539062</v>
       </c>
       <c r="FB2" t="n">
-        <v>403.94873046875</v>
+        <v>282.5284423828125</v>
       </c>
       <c r="FC2" t="n">
-        <v>401.5491943359375</v>
+        <v>282.4846496582031</v>
       </c>
       <c r="FD2" t="n">
-        <v>403.33251953125</v>
+        <v>285.0574951171875</v>
       </c>
       <c r="FE2" t="n">
-        <v>402.5640258789062</v>
+        <v>286.2979431152344</v>
       </c>
       <c r="FF2" t="n">
-        <v>402.1571044921875</v>
+        <v>286.3646850585938</v>
       </c>
       <c r="FG2" t="n">
-        <v>400.630126953125</v>
+        <v>286.9280395507812</v>
       </c>
       <c r="FH2" t="n">
-        <v>399.6588745117188</v>
+        <v>287.7158813476562</v>
       </c>
       <c r="FI2" t="n">
-        <v>399.989990234375</v>
+        <v>287.3741149902344</v>
       </c>
       <c r="FJ2" t="n">
-        <v>401.151611328125</v>
+        <v>287.634033203125</v>
       </c>
       <c r="FK2" t="n">
-        <v>402.484375</v>
+        <v>288.0060119628906</v>
       </c>
       <c r="FL2" t="n">
-        <v>401.8540954589844</v>
+        <v>287.7102661132812</v>
       </c>
       <c r="FM2" t="n">
-        <v>400.2828979492188</v>
+        <v>288.3921508789062</v>
       </c>
       <c r="FN2" t="n">
-        <v>399.2540893554688</v>
+        <v>288.8443298339844</v>
       </c>
       <c r="FO2" t="n">
-        <v>398.8515930175781</v>
+        <v>288.3562316894531</v>
       </c>
       <c r="FP2" t="n">
-        <v>398.4869689941406</v>
+        <v>287.9242553710938</v>
       </c>
       <c r="FQ2" t="n">
-        <v>396.810302734375</v>
+        <v>287.5362243652344</v>
       </c>
       <c r="FR2" t="n">
-        <v>395.3925170898438</v>
+        <v>285.6026916503906</v>
       </c>
       <c r="FS2" t="n">
-        <v>393.0086059570312</v>
+        <v>282.1263122558594</v>
       </c>
       <c r="FT2" t="n">
-        <v>387.2457580566406</v>
+        <v>272.5364685058594</v>
       </c>
       <c r="FU2" t="n">
-        <v>386.0916442871094</v>
+        <v>265.9323425292969</v>
       </c>
       <c r="FV2" t="n">
-        <v>377.3307800292969</v>
+        <v>264.0088500976562</v>
       </c>
       <c r="FW2" t="n">
-        <v>372.9263916015625</v>
+        <v>247.6270446777344</v>
       </c>
       <c r="FX2" t="n">
-        <v>366.6680908203125</v>
+        <v>239.5930786132812</v>
       </c>
       <c r="FY2" t="n">
-        <v>363.8472290039062</v>
+        <v>228.4910583496094</v>
       </c>
       <c r="FZ2" t="n">
-        <v>362.263671875</v>
+        <v>224.0075378417969</v>
       </c>
       <c r="GA2" t="n">
-        <v>362.6280517578125</v>
+        <v>213.7869567871094</v>
       </c>
       <c r="GB2" t="n">
-        <v>362.0302734375</v>
+        <v>205.782470703125</v>
       </c>
       <c r="GC2" t="n">
-        <v>360.6040954589844</v>
+        <v>204.0946044921875</v>
       </c>
       <c r="GD2" t="n">
-        <v>355.9158935546875</v>
+        <v>202.4383239746094</v>
       </c>
       <c r="GE2" t="n">
-        <v>355.4491577148438</v>
+        <v>199.9857940673828</v>
       </c>
       <c r="GF2" t="n">
-        <v>355.3887329101562</v>
+        <v>199.0057373046875</v>
       </c>
       <c r="GG2" t="n">
-        <v>359.6256713867188</v>
+        <v>198.5200500488281</v>
       </c>
       <c r="GH2" t="n">
-        <v>359.028076171875</v>
+        <v>197.48583984375</v>
       </c>
       <c r="GI2" t="n">
-        <v>356.5578918457031</v>
+        <v>196.2242126464844</v>
       </c>
       <c r="GJ2" t="n">
-        <v>353.4851684570312</v>
+        <v>196.5015258789062</v>
       </c>
       <c r="GK2" t="n">
-        <v>350.1459045410156</v>
+        <v>194.1360473632812</v>
       </c>
       <c r="GL2" t="n">
-        <v>347.7741088867188</v>
+        <v>192.5584564208984</v>
       </c>
       <c r="GM2" t="n">
-        <v>342.03955078125</v>
+        <v>190.7126159667969</v>
       </c>
       <c r="GN2" t="n">
-        <v>339.22021484375</v>
+        <v>190.2754058837891</v>
       </c>
       <c r="GO2" t="n">
-        <v>331.7940979003906</v>
+        <v>193.2796936035156</v>
       </c>
       <c r="GP2" t="n">
-        <v>323.9873962402344</v>
+        <v>194.2996063232422</v>
       </c>
       <c r="GQ2" t="n">
-        <v>316.5880432128906</v>
+        <v>191.8301544189453</v>
       </c>
       <c r="GR2" t="n">
-        <v>309.4463806152344</v>
+        <v>187.3352966308594</v>
       </c>
       <c r="GS2" t="n">
-        <v>306.3938903808594</v>
+        <v>184.43505859375</v>
       </c>
       <c r="GT2" t="n">
-        <v>305.6917419433594</v>
+        <v>180.0581207275391</v>
       </c>
       <c r="GU2" t="n">
-        <v>298.1473388671875</v>
+        <v>163.052734375</v>
       </c>
       <c r="GV2" t="n">
-        <v>298.1499938964844</v>
+        <v>154.7931213378906</v>
       </c>
       <c r="GW2" t="n">
-        <v>297.6324768066406</v>
+        <v>143.22509765625</v>
       </c>
       <c r="GX2" t="n">
-        <v>293.9351501464844</v>
+        <v>124.2455215454102</v>
       </c>
       <c r="GY2" t="n">
-        <v>290.5335998535156</v>
+        <v>103.5170135498047</v>
       </c>
       <c r="GZ2" t="n">
-        <v>290.7785949707031</v>
+        <v>81.198974609375</v>
       </c>
       <c r="HA2" t="n">
-        <v>291.4188232421875</v>
+        <v>45.92097473144531</v>
       </c>
       <c r="HB2" t="n">
-        <v>292.6532287597656</v>
+        <v>35.8485221862793</v>
       </c>
       <c r="HC2" t="n">
-        <v>292.6924743652344</v>
+        <v>23.30301094055176</v>
       </c>
       <c r="HD2" t="n">
-        <v>292.5196533203125</v>
+        <v>29.3167724609375</v>
       </c>
       <c r="HE2" t="n">
-        <v>292.5462341308594</v>
+        <v>30.93205261230469</v>
       </c>
       <c r="HF2" t="n">
-        <v>292.1202087402344</v>
+        <v>41.48720550537109</v>
       </c>
       <c r="HG2" t="n">
-        <v>289.9732666015625</v>
+        <v>47.72255706787109</v>
       </c>
       <c r="HH2" t="n">
-        <v>288.7677001953125</v>
+        <v>43.201171875</v>
       </c>
       <c r="HI2" t="n">
-        <v>288.453369140625</v>
+        <v>33.91808700561523</v>
       </c>
       <c r="HJ2" t="n">
-        <v>294.0784301757812</v>
+        <v>26.55857467651367</v>
       </c>
       <c r="HK2" t="n">
-        <v>302.4305419921875</v>
+        <v>29.14184951782227</v>
       </c>
       <c r="HL2" t="n">
-        <v>310.3659362792969</v>
+        <v>30.62124061584473</v>
       </c>
       <c r="HM2" t="n">
-        <v>319.7218322753906</v>
+        <v>30.79107666015625</v>
       </c>
       <c r="HN2" t="n">
-        <v>330.5877075195312</v>
+        <v>42.19329071044922</v>
       </c>
       <c r="HO2" t="n">
-        <v>349.6348876953125</v>
+        <v>52.69352722167969</v>
       </c>
       <c r="HP2" t="n">
-        <v>359.4440307617188</v>
+        <v>42.23907470703125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>365.1171875</v>
+        <v>51.14118576049805</v>
       </c>
       <c r="HR2" t="n">
-        <v>375.7824401855469</v>
+        <v>49.66603851318359</v>
       </c>
       <c r="HS2" t="n">
-        <v>383.586669921875</v>
+        <v>22.95150375366211</v>
       </c>
       <c r="HT2" t="n">
-        <v>386.7073059082031</v>
+        <v>35.44614028930664</v>
       </c>
       <c r="HU2" t="n">
-        <v>386.1312255859375</v>
+        <v>36.73942947387695</v>
       </c>
       <c r="HV2" t="n">
-        <v>387.3540649414062</v>
+        <v>60.82109451293945</v>
       </c>
       <c r="HW2" t="n">
-        <v>389.0158081054688</v>
+        <v>93.69017791748047</v>
       </c>
       <c r="HX2" t="n">
-        <v>388.9041748046875</v>
+        <v>117.4550170898438</v>
       </c>
       <c r="HY2" t="n">
-        <v>388.9284057617188</v>
+        <v>145.9535217285156</v>
       </c>
       <c r="HZ2" t="n">
-        <v>388.8877868652344</v>
+        <v>167.8174133300781</v>
       </c>
       <c r="IA2" t="n">
-        <v>388.5274658203125</v>
+        <v>191.4479064941406</v>
       </c>
       <c r="IB2" t="n">
-        <v>388.3511962890625</v>
+        <v>204.7439270019531</v>
       </c>
       <c r="IC2" t="n">
-        <v>387.5890808105469</v>
+        <v>217.0005493164062</v>
       </c>
       <c r="ID2" t="n">
-        <v>385.7925415039062</v>
+        <v>227.9146423339844</v>
       </c>
       <c r="IE2" t="n">
-        <v>382.27392578125</v>
+        <v>232.6811981201172</v>
       </c>
       <c r="IF2" t="n">
-        <v>379.432861328125</v>
+        <v>238.4900054931641</v>
       </c>
       <c r="IG2" t="n">
-        <v>376.280517578125</v>
+        <v>241.1458129882812</v>
       </c>
       <c r="IH2" t="n">
-        <v>373.1305236816406</v>
+        <v>240.2540435791016</v>
       </c>
       <c r="II2" t="n">
-        <v>366.3502502441406</v>
+        <v>238.4690704345703</v>
       </c>
       <c r="IJ2" t="n">
-        <v>357.9931030273438</v>
+        <v>232.8492431640625</v>
       </c>
       <c r="IK2" t="n">
-        <v>345.1078796386719</v>
+        <v>223.9734039306641</v>
       </c>
       <c r="IL2" t="n">
-        <v>339.7706909179688</v>
+        <v>212.2338562011719</v>
       </c>
       <c r="IM2" t="n">
-        <v>331.7159729003906</v>
+        <v>203.0455932617188</v>
       </c>
       <c r="IN2" t="n">
-        <v>316.7796020507812</v>
+        <v>186.5268249511719</v>
       </c>
       <c r="IO2" t="n">
-        <v>312.1838989257812</v>
+        <v>186.5159912109375</v>
       </c>
       <c r="IP2" t="n">
-        <v>307.3323059082031</v>
+        <v>269.7264709472656</v>
       </c>
       <c r="IQ2" t="n">
-        <v>298.0469665527344</v>
+        <v>125.1535949707031</v>
       </c>
       <c r="IR2" t="n">
-        <v>298.5475463867188</v>
+        <v>118.8452301025391</v>
       </c>
       <c r="IS2" t="n">
-        <v>298.7856750488281</v>
+        <v>106.1036682128906</v>
       </c>
       <c r="IT2" t="n">
-        <v>293.4212951660156</v>
+        <v>96.54662322998047</v>
       </c>
       <c r="IU2" t="n">
-        <v>291.3912048339844</v>
+        <v>89.667724609375</v>
       </c>
       <c r="IV2" t="n">
-        <v>293.5420837402344</v>
+        <v>81.36549377441406</v>
       </c>
       <c r="IW2" t="n">
-        <v>291.9714965820312</v>
+        <v>76.17889404296875</v>
       </c>
       <c r="IX2" t="n">
-        <v>292.5361328125</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>292.947021484375</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>292.6362609863281</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>292.0014953613281</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>292.308349609375</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>300.966552734375</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>302.9888000488281</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>314.3668823242188</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>316.2606811523438</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>328.0362548828125</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>336.3604125976562</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>344.0515747070312</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>349.4439392089844</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>354.73974609375</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>361.2901611328125</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>364.4217529296875</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>366.7542724609375</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>370.5090942382812</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>370.7361450195312</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>370.4801025390625</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>371.313720703125</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>375.3129272460938</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>377.3081665039062</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>377.36279296875</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>377.6412658691406</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>378.2272338867188</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>378.4985046386719</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>378.4110717773438</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>378.2126159667969</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>377.5380859375</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>376.5231628417969</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>371.1597290039062</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>364.7557373046875</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>363.6493530273438</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>363.4434814453125</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>363.120849609375</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>362.7867126464844</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>362.7537841796875</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>362.662109375</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>362.5695495605469</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>362.4034423828125</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>361.24365234375</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>352.0199584960938</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>344.3191223144531</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>339.898193359375</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>336.2994995117188</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>337.1091918945312</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>337.7216186523438</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>337.6737060546875</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>338.3209533691406</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>336.7933959960938</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>336.7926025390625</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>336.531005859375</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>336.8130493164062</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>337.4192810058594</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>340.2142333984375</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>344.3329467773438</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>350.4630126953125</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>367.32568359375</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>372.5848388671875</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>377.318115234375</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>377.7175598144531</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>381.0205688476562</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>384.6255493164062</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>388.0258178710938</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>394.1214294433594</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>395.7064208984375</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>398.0175170898438</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>399.9044189453125</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>402.5066833496094</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>405.8691101074219</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>409.4053649902344</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>407.1118774414062</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>402.647216796875</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>407.7557373046875</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>409.9115295410156</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>407.3851928710938</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>410.4754638671875</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>411.1935119628906</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>393.6398620605469</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>383.016845703125</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>357.09375</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>335.7324829101562</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>317.5265808105469</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>294.6690979003906</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>257</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>255.8138732910156</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>257.4966735839844</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>260.6882629394531</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>272.1273193359375</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>300.8417663574219</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>306.832275390625</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>308.8518981933594</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>305.5372314453125</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>304.6663818359375</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>305.2737731933594</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>304.8214416503906</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>291.7303161621094</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>250.9134521484375</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>236.7386779785156</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>218.3399353027344</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>194.3350830078125</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>191.073974609375</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>207.5541381835938</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>181.5490417480469</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>183.346923828125</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>190.9564514160156</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>192.9535675048828</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>194.6111755371094</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>199.7878875732422</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>208.2484130859375</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>211.8137969970703</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>215.9223785400391</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>221.9763488769531</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>227.4322204589844</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>226.6460418701172</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>225.919189453125</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>225.4359436035156</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>223.7901000976562</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>220.4589538574219</v>
+        <v>80.56430053710938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>241.9690093994141</v>
+        <v>325.5004272460938</v>
       </c>
       <c r="B3" t="n">
-        <v>254.3951568603516</v>
+        <v>322.5000305175781</v>
       </c>
       <c r="C3" t="n">
-        <v>262.61328125</v>
+        <v>319.474853515625</v>
       </c>
       <c r="D3" t="n">
-        <v>274.7791137695312</v>
+        <v>316.799560546875</v>
       </c>
       <c r="E3" t="n">
-        <v>287.4554443359375</v>
+        <v>315.3003845214844</v>
       </c>
       <c r="F3" t="n">
-        <v>294.4808959960938</v>
+        <v>315.0124816894531</v>
       </c>
       <c r="G3" t="n">
-        <v>294.9007263183594</v>
+        <v>314.0118408203125</v>
       </c>
       <c r="H3" t="n">
-        <v>298.8460998535156</v>
+        <v>313.0708312988281</v>
       </c>
       <c r="I3" t="n">
-        <v>302.4447937011719</v>
+        <v>312.5426330566406</v>
       </c>
       <c r="J3" t="n">
-        <v>303.9192199707031</v>
+        <v>314.7144165039062</v>
       </c>
       <c r="K3" t="n">
-        <v>302.1224975585938</v>
+        <v>314.0849609375</v>
       </c>
       <c r="L3" t="n">
-        <v>297.3618774414062</v>
+        <v>316.9439392089844</v>
       </c>
       <c r="M3" t="n">
-        <v>286.80908203125</v>
+        <v>314.681396484375</v>
       </c>
       <c r="N3" t="n">
-        <v>280.3197631835938</v>
+        <v>316.4296569824219</v>
       </c>
       <c r="O3" t="n">
-        <v>267.7724609375</v>
+        <v>324.2759704589844</v>
       </c>
       <c r="P3" t="n">
-        <v>264.1632690429688</v>
+        <v>322.6560668945312</v>
       </c>
       <c r="Q3" t="n">
-        <v>263.036376953125</v>
+        <v>321.82666015625</v>
       </c>
       <c r="R3" t="n">
-        <v>261.6085815429688</v>
+        <v>323.7909240722656</v>
       </c>
       <c r="S3" t="n">
-        <v>261.6409606933594</v>
+        <v>324.2668151855469</v>
       </c>
       <c r="T3" t="n">
-        <v>263.0982055664062</v>
+        <v>324.5515441894531</v>
       </c>
       <c r="U3" t="n">
-        <v>262.13671875</v>
+        <v>325.0221557617188</v>
       </c>
       <c r="V3" t="n">
-        <v>266.5281066894531</v>
+        <v>325.5892028808594</v>
       </c>
       <c r="W3" t="n">
-        <v>270.4293823242188</v>
+        <v>326.1000671386719</v>
       </c>
       <c r="X3" t="n">
-        <v>274.2388305664062</v>
+        <v>326.7027282714844</v>
       </c>
       <c r="Y3" t="n">
-        <v>281.9971923828125</v>
+        <v>327.0172119140625</v>
       </c>
       <c r="Z3" t="n">
-        <v>286.8030090332031</v>
+        <v>326.9372253417969</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.5100708007812</v>
+        <v>327.1571044921875</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.3528442382812</v>
+        <v>326.2779846191406</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.2478332519531</v>
+        <v>326.12890625</v>
       </c>
       <c r="AD3" t="n">
-        <v>295.5511169433594</v>
+        <v>327.2586975097656</v>
       </c>
       <c r="AE3" t="n">
-        <v>296.7355346679688</v>
+        <v>328.5628967285156</v>
       </c>
       <c r="AF3" t="n">
-        <v>296.7117309570312</v>
+        <v>328.3731994628906</v>
       </c>
       <c r="AG3" t="n">
-        <v>296.2213745117188</v>
+        <v>328.1407470703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>294.8553771972656</v>
+        <v>327.5995483398438</v>
       </c>
       <c r="AI3" t="n">
-        <v>291.9483032226562</v>
+        <v>327.7920227050781</v>
       </c>
       <c r="AJ3" t="n">
-        <v>290.5440979003906</v>
+        <v>328.1035461425781</v>
       </c>
       <c r="AK3" t="n">
-        <v>289.9407653808594</v>
+        <v>328.1124267578125</v>
       </c>
       <c r="AL3" t="n">
-        <v>290.2268371582031</v>
+        <v>328.5868225097656</v>
       </c>
       <c r="AM3" t="n">
-        <v>291.1004638671875</v>
+        <v>329.4083557128906</v>
       </c>
       <c r="AN3" t="n">
-        <v>292.6030883789062</v>
+        <v>330.5167541503906</v>
       </c>
       <c r="AO3" t="n">
-        <v>294.2027587890625</v>
+        <v>331.1792297363281</v>
       </c>
       <c r="AP3" t="n">
-        <v>296.2495727539062</v>
+        <v>331.904296875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>297.7281188964844</v>
+        <v>332.0557556152344</v>
       </c>
       <c r="AR3" t="n">
-        <v>298.5179138183594</v>
+        <v>331.9784851074219</v>
       </c>
       <c r="AS3" t="n">
-        <v>298.8788757324219</v>
+        <v>331.6024169921875</v>
       </c>
       <c r="AT3" t="n">
-        <v>299.5792541503906</v>
+        <v>331.5608825683594</v>
       </c>
       <c r="AU3" t="n">
-        <v>300.9134826660156</v>
+        <v>331.2730712890625</v>
       </c>
       <c r="AV3" t="n">
-        <v>301.6349182128906</v>
+        <v>331.0108642578125</v>
       </c>
       <c r="AW3" t="n">
-        <v>301.7234497070312</v>
+        <v>330.724853515625</v>
       </c>
       <c r="AX3" t="n">
-        <v>301.2173156738281</v>
+        <v>331.6302490234375</v>
       </c>
       <c r="AY3" t="n">
-        <v>300.2841491699219</v>
+        <v>331.9371337890625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>299.3764953613281</v>
+        <v>332.2947082519531</v>
       </c>
       <c r="BA3" t="n">
-        <v>298.1264953613281</v>
+        <v>331.9202575683594</v>
       </c>
       <c r="BB3" t="n">
-        <v>294.954345703125</v>
+        <v>330.4060974121094</v>
       </c>
       <c r="BC3" t="n">
-        <v>291.1004943847656</v>
+        <v>333.3327941894531</v>
       </c>
       <c r="BD3" t="n">
-        <v>289.1196899414062</v>
+        <v>332.4745178222656</v>
       </c>
       <c r="BE3" t="n">
-        <v>287.0625610351562</v>
+        <v>331.5926208496094</v>
       </c>
       <c r="BF3" t="n">
-        <v>285.1155395507812</v>
+        <v>330.6214599609375</v>
       </c>
       <c r="BG3" t="n">
-        <v>283.0247192382812</v>
+        <v>329.6353454589844</v>
       </c>
       <c r="BH3" t="n">
-        <v>280.4391479492188</v>
+        <v>328.9401245117188</v>
       </c>
       <c r="BI3" t="n">
-        <v>279.2247924804688</v>
+        <v>328.3985290527344</v>
       </c>
       <c r="BJ3" t="n">
-        <v>278.5415344238281</v>
+        <v>327.8443908691406</v>
       </c>
       <c r="BK3" t="n">
-        <v>278.556884765625</v>
+        <v>327.2894897460938</v>
       </c>
       <c r="BL3" t="n">
-        <v>279.3498840332031</v>
+        <v>327.3045654296875</v>
       </c>
       <c r="BM3" t="n">
-        <v>279.0919494628906</v>
+        <v>327.3645629882812</v>
       </c>
       <c r="BN3" t="n">
-        <v>279.2555236816406</v>
+        <v>327.435791015625</v>
       </c>
       <c r="BO3" t="n">
-        <v>279.8192443847656</v>
+        <v>327.607177734375</v>
       </c>
       <c r="BP3" t="n">
-        <v>280.0113220214844</v>
+        <v>327.7072143554688</v>
       </c>
       <c r="BQ3" t="n">
-        <v>279.5841064453125</v>
+        <v>327.8318481445312</v>
       </c>
       <c r="BR3" t="n">
-        <v>278.4169616699219</v>
+        <v>327.9735717773438</v>
       </c>
       <c r="BS3" t="n">
-        <v>278.136962890625</v>
+        <v>328.1230163574219</v>
       </c>
       <c r="BT3" t="n">
-        <v>278.0308227539062</v>
+        <v>328.2546997070312</v>
       </c>
       <c r="BU3" t="n">
-        <v>278.095947265625</v>
+        <v>328.6054077148438</v>
       </c>
       <c r="BV3" t="n">
-        <v>278.4282836914062</v>
+        <v>329.0338439941406</v>
       </c>
       <c r="BW3" t="n">
-        <v>278.8065490722656</v>
+        <v>314.6670227050781</v>
       </c>
       <c r="BX3" t="n">
-        <v>278.9715576171875</v>
+        <v>307.6992797851562</v>
       </c>
       <c r="BY3" t="n">
-        <v>278.3917541503906</v>
+        <v>301.6283264160156</v>
       </c>
       <c r="BZ3" t="n">
-        <v>278.2363891601562</v>
+        <v>296.310546875</v>
       </c>
       <c r="CA3" t="n">
-        <v>277.7984313964844</v>
+        <v>291.8310852050781</v>
       </c>
       <c r="CB3" t="n">
-        <v>277.1100769042969</v>
+        <v>293.138916015625</v>
       </c>
       <c r="CC3" t="n">
-        <v>276.5114135742188</v>
+        <v>290.0957641601562</v>
       </c>
       <c r="CD3" t="n">
-        <v>277.6658325195312</v>
+        <v>286.3856811523438</v>
       </c>
       <c r="CE3" t="n">
-        <v>279.6220397949219</v>
+        <v>282.4553833007812</v>
       </c>
       <c r="CF3" t="n">
-        <v>280.2673950195312</v>
+        <v>280.0780334472656</v>
       </c>
       <c r="CG3" t="n">
-        <v>280.9870910644531</v>
+        <v>277.5973205566406</v>
       </c>
       <c r="CH3" t="n">
-        <v>280.9834594726562</v>
+        <v>275.0629272460938</v>
       </c>
       <c r="CI3" t="n">
-        <v>279.93896484375</v>
+        <v>275.4320373535156</v>
       </c>
       <c r="CJ3" t="n">
-        <v>280.2843627929688</v>
+        <v>275.6445922851562</v>
       </c>
       <c r="CK3" t="n">
-        <v>280.8848876953125</v>
+        <v>275.8904113769531</v>
       </c>
       <c r="CL3" t="n">
-        <v>281.6644287109375</v>
+        <v>276.5498962402344</v>
       </c>
       <c r="CM3" t="n">
-        <v>281.2041015625</v>
+        <v>278.4938659667969</v>
       </c>
       <c r="CN3" t="n">
-        <v>280.4529724121094</v>
+        <v>281.3690795898438</v>
       </c>
       <c r="CO3" t="n">
-        <v>279.7897033691406</v>
+        <v>283.4454956054688</v>
       </c>
       <c r="CP3" t="n">
-        <v>279.1170654296875</v>
+        <v>283.7646179199219</v>
       </c>
       <c r="CQ3" t="n">
-        <v>277.9779968261719</v>
+        <v>284.9458312988281</v>
       </c>
       <c r="CR3" t="n">
-        <v>276.4013977050781</v>
+        <v>285.99853515625</v>
       </c>
       <c r="CS3" t="n">
-        <v>269.91845703125</v>
+        <v>286.7634582519531</v>
       </c>
       <c r="CT3" t="n">
-        <v>258.704833984375</v>
+        <v>288.7798461914062</v>
       </c>
       <c r="CU3" t="n">
-        <v>254.7223358154297</v>
+        <v>291.768310546875</v>
       </c>
       <c r="CV3" t="n">
-        <v>247.950927734375</v>
+        <v>293.4095153808594</v>
       </c>
       <c r="CW3" t="n">
-        <v>242.1250762939453</v>
+        <v>294.4156799316406</v>
       </c>
       <c r="CX3" t="n">
-        <v>233.6093597412109</v>
+        <v>297.1160888671875</v>
       </c>
       <c r="CY3" t="n">
-        <v>227.4682769775391</v>
+        <v>302.6650390625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>212.3861846923828</v>
+        <v>303.8607177734375</v>
       </c>
       <c r="DA3" t="n">
-        <v>209.3753814697266</v>
+        <v>312.3150939941406</v>
       </c>
       <c r="DB3" t="n">
-        <v>207.8426666259766</v>
+        <v>317.4971008300781</v>
       </c>
       <c r="DC3" t="n">
-        <v>204.1690368652344</v>
+        <v>319.5370483398438</v>
       </c>
       <c r="DD3" t="n">
-        <v>199.4710693359375</v>
+        <v>321.4458923339844</v>
       </c>
       <c r="DE3" t="n">
-        <v>196.3081970214844</v>
+        <v>328.9842224121094</v>
       </c>
       <c r="DF3" t="n">
-        <v>196.1220855712891</v>
+        <v>329.8949279785156</v>
       </c>
       <c r="DG3" t="n">
-        <v>196.1687469482422</v>
+        <v>330.3000793457031</v>
       </c>
       <c r="DH3" t="n">
-        <v>196.8415832519531</v>
+        <v>331.4147033691406</v>
       </c>
       <c r="DI3" t="n">
-        <v>197.6601409912109</v>
+        <v>331.503173828125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>208.4077758789062</v>
+        <v>332.0641784667969</v>
       </c>
       <c r="DK3" t="n">
-        <v>217.6510467529297</v>
+        <v>331.5896911621094</v>
       </c>
       <c r="DL3" t="n">
-        <v>222.4478302001953</v>
+        <v>332.014404296875</v>
       </c>
       <c r="DM3" t="n">
-        <v>230.9313659667969</v>
+        <v>332.4579467773438</v>
       </c>
       <c r="DN3" t="n">
-        <v>235.3270568847656</v>
+        <v>332.1861572265625</v>
       </c>
       <c r="DO3" t="n">
-        <v>240.5266265869141</v>
+        <v>331.7754821777344</v>
       </c>
       <c r="DP3" t="n">
-        <v>248.3709869384766</v>
+        <v>331.5895385742188</v>
       </c>
       <c r="DQ3" t="n">
-        <v>266.1051635742188</v>
+        <v>331.5686340332031</v>
       </c>
       <c r="DR3" t="n">
-        <v>273.9951782226562</v>
+        <v>331.2491149902344</v>
       </c>
       <c r="DS3" t="n">
-        <v>278.1972351074219</v>
+        <v>330.3879699707031</v>
       </c>
       <c r="DT3" t="n">
-        <v>284.4779663085938</v>
+        <v>329.6235961914062</v>
       </c>
       <c r="DU3" t="n">
-        <v>288.3721008300781</v>
+        <v>329.57763671875</v>
       </c>
       <c r="DV3" t="n">
-        <v>290.3753967285156</v>
+        <v>329.503173828125</v>
       </c>
       <c r="DW3" t="n">
-        <v>291.4903564453125</v>
+        <v>329.4596862792969</v>
       </c>
       <c r="DX3" t="n">
-        <v>290.1100463867188</v>
+        <v>329.5080871582031</v>
       </c>
       <c r="DY3" t="n">
-        <v>290.3755187988281</v>
+        <v>330.1022644042969</v>
       </c>
       <c r="DZ3" t="n">
-        <v>290.8315124511719</v>
+        <v>331.7577819824219</v>
       </c>
       <c r="EA3" t="n">
-        <v>291.9023132324219</v>
+        <v>331.89404296875</v>
       </c>
       <c r="EB3" t="n">
-        <v>293.2940979003906</v>
+        <v>331.8327331542969</v>
       </c>
       <c r="EC3" t="n">
-        <v>293.6227111816406</v>
+        <v>331.8714904785156</v>
       </c>
       <c r="ED3" t="n">
-        <v>296.4374694824219</v>
+        <v>331.6404113769531</v>
       </c>
       <c r="EE3" t="n">
-        <v>297.8121643066406</v>
+        <v>330.6455993652344</v>
       </c>
       <c r="EF3" t="n">
-        <v>300.968994140625</v>
+        <v>328.3084716796875</v>
       </c>
       <c r="EG3" t="n">
-        <v>301.9509582519531</v>
+        <v>327.3754272460938</v>
       </c>
       <c r="EH3" t="n">
-        <v>301.634765625</v>
+        <v>327.5159912109375</v>
       </c>
       <c r="EI3" t="n">
-        <v>304.3013000488281</v>
+        <v>327.7123413085938</v>
       </c>
       <c r="EJ3" t="n">
-        <v>302.3171997070312</v>
+        <v>328.7684631347656</v>
       </c>
       <c r="EK3" t="n">
-        <v>298.4395141601562</v>
+        <v>330.9735717773438</v>
       </c>
       <c r="EL3" t="n">
-        <v>296.8775634765625</v>
+        <v>330.6396789550781</v>
       </c>
       <c r="EM3" t="n">
-        <v>295.0498046875</v>
+        <v>330.9911499023438</v>
       </c>
       <c r="EN3" t="n">
-        <v>295.0702209472656</v>
+        <v>331.5645141601562</v>
       </c>
       <c r="EO3" t="n">
-        <v>296.375244140625</v>
+        <v>331.8804626464844</v>
       </c>
       <c r="EP3" t="n">
-        <v>296.8757629394531</v>
+        <v>332.1728820800781</v>
       </c>
       <c r="EQ3" t="n">
-        <v>299.659423828125</v>
+        <v>333.3497314453125</v>
       </c>
       <c r="ER3" t="n">
-        <v>298.9747009277344</v>
+        <v>333.90966796875</v>
       </c>
       <c r="ES3" t="n">
-        <v>300.2326354980469</v>
+        <v>333.914306640625</v>
       </c>
       <c r="ET3" t="n">
-        <v>304.8285217285156</v>
+        <v>333.3554992675781</v>
       </c>
       <c r="EU3" t="n">
-        <v>306.966552734375</v>
+        <v>332.67919921875</v>
       </c>
       <c r="EV3" t="n">
-        <v>306.3992309570312</v>
+        <v>330.7486572265625</v>
       </c>
       <c r="EW3" t="n">
-        <v>305.1011962890625</v>
+        <v>330.3714904785156</v>
       </c>
       <c r="EX3" t="n">
-        <v>305.2235412597656</v>
+        <v>329.7549438476562</v>
       </c>
       <c r="EY3" t="n">
-        <v>302.5588989257812</v>
+        <v>329.5014343261719</v>
       </c>
       <c r="EZ3" t="n">
-        <v>301.3556213378906</v>
+        <v>329.1235656738281</v>
       </c>
       <c r="FA3" t="n">
-        <v>302.3255310058594</v>
+        <v>329.5455627441406</v>
       </c>
       <c r="FB3" t="n">
-        <v>304.823974609375</v>
+        <v>329.3006896972656</v>
       </c>
       <c r="FC3" t="n">
-        <v>304.1201171875</v>
+        <v>329.3095397949219</v>
       </c>
       <c r="FD3" t="n">
-        <v>306.27392578125</v>
+        <v>329.9399108886719</v>
       </c>
       <c r="FE3" t="n">
-        <v>305.9505615234375</v>
+        <v>330.9943542480469</v>
       </c>
       <c r="FF3" t="n">
-        <v>306.6458740234375</v>
+        <v>329.6905517578125</v>
       </c>
       <c r="FG3" t="n">
-        <v>308.2265930175781</v>
+        <v>328.1519470214844</v>
       </c>
       <c r="FH3" t="n">
-        <v>308.8368835449219</v>
+        <v>325.7908630371094</v>
       </c>
       <c r="FI3" t="n">
-        <v>310.9569702148438</v>
+        <v>326.08203125</v>
       </c>
       <c r="FJ3" t="n">
-        <v>312.9620056152344</v>
+        <v>324.7459106445312</v>
       </c>
       <c r="FK3" t="n">
-        <v>317.0264587402344</v>
+        <v>323.6145324707031</v>
       </c>
       <c r="FL3" t="n">
-        <v>316.1521301269531</v>
+        <v>324.2722473144531</v>
       </c>
       <c r="FM3" t="n">
-        <v>314.1466369628906</v>
+        <v>322.6206359863281</v>
       </c>
       <c r="FN3" t="n">
-        <v>311.7328796386719</v>
+        <v>321.0838928222656</v>
       </c>
       <c r="FO3" t="n">
-        <v>310.5301513671875</v>
+        <v>318.8210754394531</v>
       </c>
       <c r="FP3" t="n">
-        <v>310.1054992675781</v>
+        <v>319.082275390625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>309.4918518066406</v>
+        <v>319.3004760742188</v>
       </c>
       <c r="FR3" t="n">
-        <v>310.7089233398438</v>
+        <v>319.270751953125</v>
       </c>
       <c r="FS3" t="n">
-        <v>311.4889831542969</v>
+        <v>320.5957641601562</v>
       </c>
       <c r="FT3" t="n">
-        <v>310.9472045898438</v>
+        <v>321.3067626953125</v>
       </c>
       <c r="FU3" t="n">
-        <v>310.2895202636719</v>
+        <v>321.4760131835938</v>
       </c>
       <c r="FV3" t="n">
-        <v>313.9345397949219</v>
+        <v>320.968994140625</v>
       </c>
       <c r="FW3" t="n">
-        <v>316.7352600097656</v>
+        <v>314.4794616699219</v>
       </c>
       <c r="FX3" t="n">
-        <v>317.1044311523438</v>
+        <v>311.3584289550781</v>
       </c>
       <c r="FY3" t="n">
-        <v>318.4475708007812</v>
+        <v>309.3390197753906</v>
       </c>
       <c r="FZ3" t="n">
-        <v>319.871337890625</v>
+        <v>307.2646179199219</v>
       </c>
       <c r="GA3" t="n">
-        <v>320.843017578125</v>
+        <v>305.8899841308594</v>
       </c>
       <c r="GB3" t="n">
-        <v>320.4445495605469</v>
+        <v>304.3370666503906</v>
       </c>
       <c r="GC3" t="n">
-        <v>319.7831726074219</v>
+        <v>308.3956909179688</v>
       </c>
       <c r="GD3" t="n">
-        <v>318.6410217285156</v>
+        <v>309.4650573730469</v>
       </c>
       <c r="GE3" t="n">
-        <v>319.0101928710938</v>
+        <v>310.5745239257812</v>
       </c>
       <c r="GF3" t="n">
-        <v>318.2890014648438</v>
+        <v>311.5319213867188</v>
       </c>
       <c r="GG3" t="n">
-        <v>316.2608642578125</v>
+        <v>311.5254211425781</v>
       </c>
       <c r="GH3" t="n">
-        <v>314.3863220214844</v>
+        <v>313.4604797363281</v>
       </c>
       <c r="GI3" t="n">
-        <v>313.9910583496094</v>
+        <v>314.7347412109375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>313.1383056640625</v>
+        <v>314.4072875976562</v>
       </c>
       <c r="GK3" t="n">
-        <v>312.2421264648438</v>
+        <v>314.9126281738281</v>
       </c>
       <c r="GL3" t="n">
-        <v>311.7000427246094</v>
+        <v>315.7713623046875</v>
       </c>
       <c r="GM3" t="n">
-        <v>311.4478759765625</v>
+        <v>316.2631530761719</v>
       </c>
       <c r="GN3" t="n">
-        <v>310.7241516113281</v>
+        <v>316.0401306152344</v>
       </c>
       <c r="GO3" t="n">
-        <v>311.1695861816406</v>
+        <v>311.2319641113281</v>
       </c>
       <c r="GP3" t="n">
-        <v>311.7473754882812</v>
+        <v>309.6760864257812</v>
       </c>
       <c r="GQ3" t="n">
-        <v>314.1058044433594</v>
+        <v>308.1300659179688</v>
       </c>
       <c r="GR3" t="n">
-        <v>312.6046142578125</v>
+        <v>304.9637145996094</v>
       </c>
       <c r="GS3" t="n">
-        <v>310.7749328613281</v>
+        <v>306.5735778808594</v>
       </c>
       <c r="GT3" t="n">
-        <v>311.81640625</v>
+        <v>306.0274353027344</v>
       </c>
       <c r="GU3" t="n">
-        <v>309.4639892578125</v>
+        <v>297.3350219726562</v>
       </c>
       <c r="GV3" t="n">
-        <v>310.9582214355469</v>
+        <v>286.3630981445312</v>
       </c>
       <c r="GW3" t="n">
-        <v>310.8833923339844</v>
+        <v>282.7503051757812</v>
       </c>
       <c r="GX3" t="n">
-        <v>311.0846862792969</v>
+        <v>284.6394348144531</v>
       </c>
       <c r="GY3" t="n">
-        <v>311.3330688476562</v>
+        <v>287.4855041503906</v>
       </c>
       <c r="GZ3" t="n">
-        <v>311.4048461914062</v>
+        <v>292.9443969726562</v>
       </c>
       <c r="HA3" t="n">
-        <v>311.3927612304688</v>
+        <v>307.2712707519531</v>
       </c>
       <c r="HB3" t="n">
-        <v>309.9419250488281</v>
+        <v>320.6227111816406</v>
       </c>
       <c r="HC3" t="n">
-        <v>308.2386169433594</v>
+        <v>337.9838562011719</v>
       </c>
       <c r="HD3" t="n">
-        <v>308.7827758789062</v>
+        <v>355.1362915039062</v>
       </c>
       <c r="HE3" t="n">
-        <v>307.8091430664062</v>
+        <v>366.8468017578125</v>
       </c>
       <c r="HF3" t="n">
-        <v>308.1205139160156</v>
+        <v>370.6910400390625</v>
       </c>
       <c r="HG3" t="n">
-        <v>307.0908203125</v>
+        <v>382.2137451171875</v>
       </c>
       <c r="HH3" t="n">
-        <v>306.0956726074219</v>
+        <v>409.0074768066406</v>
       </c>
       <c r="HI3" t="n">
-        <v>306.7427978515625</v>
+        <v>428.1448364257812</v>
       </c>
       <c r="HJ3" t="n">
-        <v>308.1554565429688</v>
+        <v>441.6217956542969</v>
       </c>
       <c r="HK3" t="n">
-        <v>308.0413208007812</v>
+        <v>440.27783203125</v>
       </c>
       <c r="HL3" t="n">
-        <v>309.8495178222656</v>
+        <v>439.099609375</v>
       </c>
       <c r="HM3" t="n">
-        <v>312.0162048339844</v>
+        <v>436.3271484375</v>
       </c>
       <c r="HN3" t="n">
-        <v>315.0774841308594</v>
+        <v>429.9212341308594</v>
       </c>
       <c r="HO3" t="n">
-        <v>315.9030151367188</v>
+        <v>436.5693969726562</v>
       </c>
       <c r="HP3" t="n">
-        <v>316.8253479003906</v>
+        <v>437.8857727050781</v>
       </c>
       <c r="HQ3" t="n">
-        <v>316.4558410644531</v>
+        <v>402.9122009277344</v>
       </c>
       <c r="HR3" t="n">
-        <v>315.2018127441406</v>
+        <v>420.7504577636719</v>
       </c>
       <c r="HS3" t="n">
-        <v>314.225830078125</v>
+        <v>493.42529296875</v>
       </c>
       <c r="HT3" t="n">
-        <v>313.3457336425781</v>
+        <v>459.7516479492188</v>
       </c>
       <c r="HU3" t="n">
-        <v>312.1319885253906</v>
+        <v>474.650390625</v>
       </c>
       <c r="HV3" t="n">
-        <v>310.7641906738281</v>
+        <v>495.1021423339844</v>
       </c>
       <c r="HW3" t="n">
-        <v>310.1596069335938</v>
+        <v>504.0145263671875</v>
       </c>
       <c r="HX3" t="n">
-        <v>310.2230529785156</v>
+        <v>498.4142456054688</v>
       </c>
       <c r="HY3" t="n">
-        <v>309.9981079101562</v>
+        <v>490.9861450195312</v>
       </c>
       <c r="HZ3" t="n">
-        <v>309.3829345703125</v>
+        <v>477.9813537597656</v>
       </c>
       <c r="IA3" t="n">
-        <v>309.4598083496094</v>
+        <v>469.2679443359375</v>
       </c>
       <c r="IB3" t="n">
-        <v>309.4985656738281</v>
+        <v>460.85205078125</v>
       </c>
       <c r="IC3" t="n">
-        <v>309.0643005371094</v>
+        <v>454.1008605957031</v>
       </c>
       <c r="ID3" t="n">
-        <v>307.7459411621094</v>
+        <v>450.4151611328125</v>
       </c>
       <c r="IE3" t="n">
-        <v>307.9418334960938</v>
+        <v>449.4461975097656</v>
       </c>
       <c r="IF3" t="n">
-        <v>307.7337341308594</v>
+        <v>446.423828125</v>
       </c>
       <c r="IG3" t="n">
-        <v>307.7985229492188</v>
+        <v>446.9842529296875</v>
       </c>
       <c r="IH3" t="n">
-        <v>309.3278198242188</v>
+        <v>447.1880798339844</v>
       </c>
       <c r="II3" t="n">
-        <v>309.9976196289062</v>
+        <v>448.9964599609375</v>
       </c>
       <c r="IJ3" t="n">
-        <v>310.2130126953125</v>
+        <v>457.6968078613281</v>
       </c>
       <c r="IK3" t="n">
-        <v>309.6095581054688</v>
+        <v>462.6925659179688</v>
       </c>
       <c r="IL3" t="n">
-        <v>309.5689697265625</v>
+        <v>467.415283203125</v>
       </c>
       <c r="IM3" t="n">
-        <v>312.1155090332031</v>
+        <v>474.1382141113281</v>
       </c>
       <c r="IN3" t="n">
-        <v>313.0282592773438</v>
+        <v>473.1424560546875</v>
       </c>
       <c r="IO3" t="n">
-        <v>313.3852844238281</v>
+        <v>493.6883239746094</v>
       </c>
       <c r="IP3" t="n">
-        <v>311.1209411621094</v>
+        <v>385.3393249511719</v>
       </c>
       <c r="IQ3" t="n">
-        <v>310.7966918945312</v>
+        <v>498.6292114257812</v>
       </c>
       <c r="IR3" t="n">
-        <v>312.91796875</v>
+        <v>499.9378356933594</v>
       </c>
       <c r="IS3" t="n">
-        <v>313.8322448730469</v>
+        <v>505.1946716308594</v>
       </c>
       <c r="IT3" t="n">
-        <v>313.124755859375</v>
+        <v>503.5369567871094</v>
       </c>
       <c r="IU3" t="n">
-        <v>313.8054809570312</v>
+        <v>506.4748840332031</v>
       </c>
       <c r="IV3" t="n">
-        <v>316.0941467285156</v>
+        <v>506.9598693847656</v>
       </c>
       <c r="IW3" t="n">
-        <v>316.9350891113281</v>
+        <v>498.9574890136719</v>
       </c>
       <c r="IX3" t="n">
-        <v>316.5729064941406</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>316.9120788574219</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>317.1785888671875</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>316.75048828125</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>317.423095703125</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>317.2412414550781</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>318.7381896972656</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>319.9113159179688</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>318.6750183105469</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>317.2054443359375</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>317.0404968261719</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>317.3101196289062</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>315.9691467285156</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>314.8063659667969</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>315.4140014648438</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>315.2815856933594</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>314.1120300292969</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>314.2930603027344</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>313.8375854492188</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>313.5993957519531</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>313.4359130859375</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>314.6270446777344</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>315.0919189453125</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>314.7351684570312</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>314.2995910644531</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>313.9645690917969</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>314.0642700195312</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>314.7164611816406</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>315.107177734375</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>314.4721374511719</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>313.9859619140625</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>312.5513000488281</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>308.3457946777344</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>306.7274169921875</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>306.2950134277344</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>305.6934814453125</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>305.3134765625</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>305.2268676757812</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>305.55078125</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>305.6439514160156</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>305.4028015136719</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>303.217529296875</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>294.2998046875</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>286.2613525390625</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>278.5661315917969</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>265.1087036132812</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>261.3688049316406</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>260.7455139160156</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>255.6287384033203</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>254.3939819335938</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>256.1449890136719</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>263.7923278808594</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>261.4300842285156</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>261.6620483398438</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>265.0578918457031</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>273.3505249023438</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>281.3079223632812</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>291.0929565429688</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>305.3480834960938</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>308.7632446289062</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>314.2028503417969</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>316.5165100097656</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>317.0089416503906</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>315.8557739257812</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>315.2227783203125</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>312.9818725585938</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>312.2066345214844</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>309.7606201171875</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>303.8629150390625</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>300.5867919921875</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>300.6703186035156</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>301.24609375</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>301.8932800292969</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>301.2470092773438</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>296.28515625</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>292.1185607910156</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>285.7025756835938</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>276.3762512207031</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>274.6363220214844</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>283.9115295410156</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>279.4984741210938</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>280.5643310546875</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>289.0943298339844</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>291.10888671875</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>287.2846374511719</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>264.8614196777344</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>270.1902465820312</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>287.2424621582031</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>299.5732727050781</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>306.1806945800781</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>322.1269836425781</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>378.9786071777344</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>394.1900329589844</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>394.2336120605469</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>395.68896484375</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>390.7140197753906</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>405.9212951660156</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>427.064697265625</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>429.8604431152344</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>438.6336669921875</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>429.7724914550781</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>406.6112060546875</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>422.90283203125</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>417.1414489746094</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>427.7662658691406</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>425.3426208496094</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>418.2870483398438</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>407.3025512695312</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>403.5132141113281</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>403.9133605957031</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>408.3433837890625</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>411.0137939453125</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>412.283447265625</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>413.0859680175781</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>418.82470703125</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>419.5770568847656</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>417.9647521972656</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>417.5475158691406</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>417.9359741210938</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>421.0798950195312</v>
+        <v>495.7904968261719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>807.4793090820312</v>
+        <v>921.9677124023438</v>
       </c>
       <c r="B4" t="n">
-        <v>798.01318359375</v>
+        <v>955.5379028320312</v>
       </c>
       <c r="C4" t="n">
-        <v>807.9844970703125</v>
+        <v>964.7603149414062</v>
       </c>
       <c r="D4" t="n">
-        <v>827.1556396484375</v>
+        <v>987.843994140625</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6659545898438</v>
+        <v>996.2933349609375</v>
       </c>
       <c r="F4" t="n">
-        <v>890.30810546875</v>
+        <v>1014.216064453125</v>
       </c>
       <c r="G4" t="n">
-        <v>933.0657958984375</v>
+        <v>1026.3251953125</v>
       </c>
       <c r="H4" t="n">
-        <v>975.331787109375</v>
+        <v>1067.703002929688</v>
       </c>
       <c r="I4" t="n">
-        <v>1015.3759765625</v>
+        <v>1093.209716796875</v>
       </c>
       <c r="J4" t="n">
-        <v>1055.165649414062</v>
+        <v>1124.807495117188</v>
       </c>
       <c r="K4" t="n">
-        <v>1093.360717773438</v>
+        <v>1151.772338867188</v>
       </c>
       <c r="L4" t="n">
-        <v>1132.4521484375</v>
+        <v>1186.585205078125</v>
       </c>
       <c r="M4" t="n">
-        <v>1266.4697265625</v>
+        <v>1177.797241210938</v>
       </c>
       <c r="N4" t="n">
-        <v>1286.017211914062</v>
+        <v>1225.661865234375</v>
       </c>
       <c r="O4" t="n">
-        <v>1343.919311523438</v>
+        <v>1551.34423828125</v>
       </c>
       <c r="P4" t="n">
-        <v>1361.432495117188</v>
+        <v>1564.946044921875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1371.954956054688</v>
+        <v>1576.837158203125</v>
       </c>
       <c r="R4" t="n">
-        <v>1391.898803710938</v>
+        <v>1585.953857421875</v>
       </c>
       <c r="S4" t="n">
-        <v>1402.589965820312</v>
+        <v>1595.864135742188</v>
       </c>
       <c r="T4" t="n">
-        <v>1410.822998046875</v>
+        <v>1605.455810546875</v>
       </c>
       <c r="U4" t="n">
-        <v>1427.943359375</v>
+        <v>1622.2724609375</v>
       </c>
       <c r="V4" t="n">
-        <v>1434.544921875</v>
+        <v>1647.113037109375</v>
       </c>
       <c r="W4" t="n">
-        <v>1441.3662109375</v>
+        <v>1664.009643554688</v>
       </c>
       <c r="X4" t="n">
-        <v>1444.607666015625</v>
+        <v>1680.856689453125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1437.969970703125</v>
+        <v>1692.03076171875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1438.58740234375</v>
+        <v>1703.2890625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1440.296508789062</v>
+        <v>1718.932739257812</v>
       </c>
       <c r="AB4" t="n">
-        <v>1441.36572265625</v>
+        <v>1740.224609375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1441.823608398438</v>
+        <v>1771.265625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1445.120849609375</v>
+        <v>1804.749267578125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1454.076049804688</v>
+        <v>1828.536254882812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1473.913208007812</v>
+        <v>1841.817993164062</v>
       </c>
       <c r="AG4" t="n">
-        <v>1483.587890625</v>
+        <v>1863.796630859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1505.19873046875</v>
+        <v>1885.385009765625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1522.036010742188</v>
+        <v>1902.889404296875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1533.70556640625</v>
+        <v>1937.49560546875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1536.996704101562</v>
+        <v>1965.47705078125</v>
       </c>
       <c r="AL4" t="n">
-        <v>1533.46630859375</v>
+        <v>1980.407470703125</v>
       </c>
       <c r="AM4" t="n">
-        <v>1526.07568359375</v>
+        <v>1992.151000976562</v>
       </c>
       <c r="AN4" t="n">
-        <v>1518.730834960938</v>
+        <v>2004.956665039062</v>
       </c>
       <c r="AO4" t="n">
-        <v>1511.323974609375</v>
+        <v>2012.8740234375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1503.813232421875</v>
+        <v>2013.34912109375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1498.099731445312</v>
+        <v>2017.791259765625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1496.950805664062</v>
+        <v>2025.367553710938</v>
       </c>
       <c r="AS4" t="n">
-        <v>1493.75537109375</v>
+        <v>2031.146484375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1489.381225585938</v>
+        <v>2035.02001953125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1483.73828125</v>
+        <v>2042.393432617188</v>
       </c>
       <c r="AV4" t="n">
-        <v>1480.301025390625</v>
+        <v>2046.439086914062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1476.31884765625</v>
+        <v>2051.721435546875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1470.377197265625</v>
+        <v>2056.892333984375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1466.661865234375</v>
+        <v>2065.3671875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1465.746826171875</v>
+        <v>2069.56494140625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1464.269287109375</v>
+        <v>2084.756103515625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1461.071533203125</v>
+        <v>2084.830078125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1456.402099609375</v>
+        <v>2085.561767578125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1447.48291015625</v>
+        <v>2089.860595703125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1436.78271484375</v>
+        <v>2095.32666015625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1427.358764648438</v>
+        <v>2098.51025390625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1417.128662109375</v>
+        <v>2102.5390625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1408.08349609375</v>
+        <v>2102.379150390625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1398.089721679688</v>
+        <v>2102.171142578125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1387.896362304688</v>
+        <v>2102.72021484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1380.04248046875</v>
+        <v>2103.19287109375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1369.954467773438</v>
+        <v>2103.0673828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1347.520263671875</v>
+        <v>2102.993408203125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1341.180541992188</v>
+        <v>2102.97607421875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1317.881958007812</v>
+        <v>2102.8916015625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1307.561279296875</v>
+        <v>2102.86376953125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1303.158081054688</v>
+        <v>2102.79931640625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1297.436279296875</v>
+        <v>2102.729736328125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1289.13525390625</v>
+        <v>2102.66162109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1284.637939453125</v>
+        <v>2102.580078125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1280.179931640625</v>
+        <v>2102.209228515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1280.652587890625</v>
+        <v>2101.685546875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1280.484252929688</v>
+        <v>2073.90283203125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1280.22021484375</v>
+        <v>2077.77490234375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1279.243408203125</v>
+        <v>2079.380126953125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1278.488647460938</v>
+        <v>2080.538818359375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1277.836059570312</v>
+        <v>2082.954833984375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1276.659423828125</v>
+        <v>2083.701904296875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1275.132446289062</v>
+        <v>2086.689453125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1273.538940429688</v>
+        <v>2087.62060546875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1269.685302734375</v>
+        <v>2082.859375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1266.452880859375</v>
+        <v>2081.20361328125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1264.716064453125</v>
+        <v>2078.16162109375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1262.3427734375</v>
+        <v>2075.290771484375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1259.233642578125</v>
+        <v>2066.231201171875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1257.826049804688</v>
+        <v>2061.46142578125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1256.319213867188</v>
+        <v>2062.770751953125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1257.52978515625</v>
+        <v>2064.31396484375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1257.662353515625</v>
+        <v>2063.723876953125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1261.162841796875</v>
+        <v>2062.8798828125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1263.181884765625</v>
+        <v>2061.89208984375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1266.028930664062</v>
+        <v>2059.200927734375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1269.497314453125</v>
+        <v>2056.4580078125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1272.304931640625</v>
+        <v>2052.833984375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1271.704345703125</v>
+        <v>2050.32958984375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1269.960815429688</v>
+        <v>2050.79541015625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1270.860961914062</v>
+        <v>2050.1748046875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1271.540771484375</v>
+        <v>2050.70458984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1273.70361328125</v>
+        <v>2050.869873046875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1287.27099609375</v>
+        <v>2051.364501953125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1300.834228515625</v>
+        <v>2053.11572265625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1303.170776367188</v>
+        <v>2051.2041015625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1308.438598632812</v>
+        <v>2045.294189453125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1312.471313476562</v>
+        <v>2045.732421875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1317.1669921875</v>
+        <v>2046.55859375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1315.46044921875</v>
+        <v>2047.596313476562</v>
       </c>
       <c r="DE4" t="n">
-        <v>1315.033203125</v>
+        <v>2092.090087890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1314.805053710938</v>
+        <v>2080.529052734375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1314.303833007812</v>
+        <v>2080.5908203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1314.844482421875</v>
+        <v>2080.384521484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1313.4326171875</v>
+        <v>2079.674560546875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1306.99560546875</v>
+        <v>2079.65576171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1288.065307617188</v>
+        <v>2051.65283203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1275.880737304688</v>
+        <v>2051.534423828125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1273.533447265625</v>
+        <v>2051.1806640625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1273.8740234375</v>
+        <v>2049.628173828125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1273.640502929688</v>
+        <v>2037.341552734375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1273.033935546875</v>
+        <v>2033.261474609375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1267.36474609375</v>
+        <v>2030.821655273438</v>
       </c>
       <c r="DR4" t="n">
-        <v>1262.721069335938</v>
+        <v>2029.331665039062</v>
       </c>
       <c r="DS4" t="n">
-        <v>1258.3291015625</v>
+        <v>2028.4326171875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1264.75244140625</v>
+        <v>2025.933715820312</v>
       </c>
       <c r="DU4" t="n">
-        <v>1291.786987304688</v>
+        <v>2023.776123046875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1293.766723632812</v>
+        <v>2023.980346679688</v>
       </c>
       <c r="DW4" t="n">
-        <v>1293.717407226562</v>
+        <v>2024.26611328125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1295.693359375</v>
+        <v>2024.838134765625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1301.412231445312</v>
+        <v>2027.701049804688</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1331.231811523438</v>
+        <v>2028.013305664062</v>
       </c>
       <c r="EA4" t="n">
-        <v>1344.190795898438</v>
+        <v>2027.343627929688</v>
       </c>
       <c r="EB4" t="n">
-        <v>1363.996459960938</v>
+        <v>2029.230712890625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1366.340454101562</v>
+        <v>2034.407348632812</v>
       </c>
       <c r="ED4" t="n">
-        <v>1369.35009765625</v>
+        <v>2057.166748046875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1384.46826171875</v>
+        <v>2059.409912109375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1415.535888671875</v>
+        <v>2067.410888671875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1457.558349609375</v>
+        <v>2066.443359375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1470.602661132812</v>
+        <v>2064.69140625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1490.76708984375</v>
+        <v>2063.2412109375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1506.03515625</v>
+        <v>2059.993408203125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1547.427490234375</v>
+        <v>2055.63720703125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1561.478149414062</v>
+        <v>2052.916259765625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1573.293701171875</v>
+        <v>2051.369140625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1584.47607421875</v>
+        <v>2047.78564453125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1601.934448242188</v>
+        <v>2037.521118164062</v>
       </c>
       <c r="EP4" t="n">
-        <v>1610.310913085938</v>
+        <v>2024.904663085938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1630.870239257812</v>
+        <v>2019.8515625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1640.687622070312</v>
+        <v>2019.076171875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1668.598510742188</v>
+        <v>2018.744750976562</v>
       </c>
       <c r="ET4" t="n">
-        <v>1665.838989257812</v>
+        <v>2018.758056640625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1667.45849609375</v>
+        <v>2019.595947265625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1676.019775390625</v>
+        <v>2014.633056640625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1721.135131835938</v>
+        <v>2003.350708007812</v>
       </c>
       <c r="EX4" t="n">
-        <v>1779.256225585938</v>
+        <v>1977.332397460938</v>
       </c>
       <c r="EY4" t="n">
-        <v>1827.309204101562</v>
+        <v>1971.768188476562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1844.755126953125</v>
+        <v>1954.894653320312</v>
       </c>
       <c r="FA4" t="n">
-        <v>1884.545288085938</v>
+        <v>1941.328247070312</v>
       </c>
       <c r="FB4" t="n">
-        <v>1909.373046875</v>
+        <v>1933.026611328125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1980.189575195312</v>
+        <v>1889.705444335938</v>
       </c>
       <c r="FD4" t="n">
-        <v>2003.989135742188</v>
+        <v>1857.408447265625</v>
       </c>
       <c r="FE4" t="n">
-        <v>2025.228271484375</v>
+        <v>1838.383178710938</v>
       </c>
       <c r="FF4" t="n">
-        <v>2035.462036132812</v>
+        <v>1818.31396484375</v>
       </c>
       <c r="FG4" t="n">
-        <v>2089.696044921875</v>
+        <v>1805.267578125</v>
       </c>
       <c r="FH4" t="n">
-        <v>2124.3466796875</v>
+        <v>1762.985717773438</v>
       </c>
       <c r="FI4" t="n">
-        <v>2190.865478515625</v>
+        <v>1739.586669921875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2214.518798828125</v>
+        <v>1714.047241210938</v>
       </c>
       <c r="FK4" t="n">
-        <v>2232.316650390625</v>
+        <v>1689.914916992188</v>
       </c>
       <c r="FL4" t="n">
-        <v>2265.2744140625</v>
+        <v>1678.729614257812</v>
       </c>
       <c r="FM4" t="n">
-        <v>2300.1953125</v>
+        <v>1646.41455078125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2334.7275390625</v>
+        <v>1631.049438476562</v>
       </c>
       <c r="FO4" t="n">
-        <v>2347.5556640625</v>
+        <v>1605.145874023438</v>
       </c>
       <c r="FP4" t="n">
-        <v>2362.296142578125</v>
+        <v>1576.19140625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2400.926025390625</v>
+        <v>1562.1748046875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2426.2216796875</v>
+        <v>1538.551879882812</v>
       </c>
       <c r="FS4" t="n">
-        <v>2434.875244140625</v>
+        <v>1514.591674804688</v>
       </c>
       <c r="FT4" t="n">
-        <v>2461.7021484375</v>
+        <v>1470.749877929688</v>
       </c>
       <c r="FU4" t="n">
-        <v>2474.940673828125</v>
+        <v>1444.275024414062</v>
       </c>
       <c r="FV4" t="n">
-        <v>2478.547607421875</v>
+        <v>1394.7490234375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2467.172119140625</v>
+        <v>1330.336059570312</v>
       </c>
       <c r="FX4" t="n">
-        <v>2469.128662109375</v>
+        <v>1309.924560546875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2462.78662109375</v>
+        <v>1282.916381835938</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2439.85791015625</v>
+        <v>1274.563720703125</v>
       </c>
       <c r="GA4" t="n">
-        <v>2433.33740234375</v>
+        <v>1256.404418945312</v>
       </c>
       <c r="GB4" t="n">
-        <v>2429.850341796875</v>
+        <v>1239.619873046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2432.56689453125</v>
+        <v>1228.206176757812</v>
       </c>
       <c r="GD4" t="n">
-        <v>2434.001220703125</v>
+        <v>1212.915283203125</v>
       </c>
       <c r="GE4" t="n">
-        <v>2426.642333984375</v>
+        <v>1185.08154296875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2426.318603515625</v>
+        <v>1172.138305664062</v>
       </c>
       <c r="GG4" t="n">
-        <v>2427.98681640625</v>
+        <v>1162.120483398438</v>
       </c>
       <c r="GH4" t="n">
-        <v>2430.1591796875</v>
+        <v>1149.878173828125</v>
       </c>
       <c r="GI4" t="n">
-        <v>2429.570556640625</v>
+        <v>1129.404174804688</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2428.414794921875</v>
+        <v>1123.786254882812</v>
       </c>
       <c r="GK4" t="n">
-        <v>2426.984619140625</v>
+        <v>1097.5087890625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2414.94921875</v>
+        <v>1075.917846679688</v>
       </c>
       <c r="GM4" t="n">
-        <v>2387.948486328125</v>
+        <v>1045.365844726562</v>
       </c>
       <c r="GN4" t="n">
-        <v>2400.863037109375</v>
+        <v>1027.844604492188</v>
       </c>
       <c r="GO4" t="n">
-        <v>2400.252685546875</v>
+        <v>996.615234375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2381.572509765625</v>
+        <v>943.349365234375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2372.43115234375</v>
+        <v>917.86083984375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2385.738037109375</v>
+        <v>871.0322265625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2344.365478515625</v>
+        <v>864.1021118164062</v>
       </c>
       <c r="GT4" t="n">
-        <v>2313.48486328125</v>
+        <v>861.9791259765625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2332.7646484375</v>
+        <v>860.6653442382812</v>
       </c>
       <c r="GV4" t="n">
-        <v>2284.66015625</v>
+        <v>854.07080078125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2282.345703125</v>
+        <v>808.291748046875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2281.322998046875</v>
+        <v>773.4923095703125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2282.42236328125</v>
+        <v>744.986572265625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2284.530517578125</v>
+        <v>712.860107421875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2277.24609375</v>
+        <v>673.908935546875</v>
       </c>
       <c r="HB4" t="n">
-        <v>2277.8056640625</v>
+        <v>659.4777221679688</v>
       </c>
       <c r="HC4" t="n">
-        <v>2244.930908203125</v>
+        <v>634.829345703125</v>
       </c>
       <c r="HD4" t="n">
-        <v>2307.91943359375</v>
+        <v>624.2154541015625</v>
       </c>
       <c r="HE4" t="n">
-        <v>2262.74755859375</v>
+        <v>605.6632080078125</v>
       </c>
       <c r="HF4" t="n">
-        <v>2263.1611328125</v>
+        <v>596.8282470703125</v>
       </c>
       <c r="HG4" t="n">
-        <v>2272.2822265625</v>
+        <v>597.51123046875</v>
       </c>
       <c r="HH4" t="n">
-        <v>2320.36474609375</v>
+        <v>601.28515625</v>
       </c>
       <c r="HI4" t="n">
-        <v>2289.571044921875</v>
+        <v>592.2391357421875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2292.63671875</v>
+        <v>579.4636840820312</v>
       </c>
       <c r="HK4" t="n">
-        <v>2291.37939453125</v>
+        <v>579.4613037109375</v>
       </c>
       <c r="HL4" t="n">
-        <v>2309.909912109375</v>
+        <v>583.6867065429688</v>
       </c>
       <c r="HM4" t="n">
-        <v>2300.310791015625</v>
+        <v>586.6622924804688</v>
       </c>
       <c r="HN4" t="n">
-        <v>2298.329345703125</v>
+        <v>592.177490234375</v>
       </c>
       <c r="HO4" t="n">
-        <v>2285.2861328125</v>
+        <v>449.7798767089844</v>
       </c>
       <c r="HP4" t="n">
-        <v>2287.68115234375</v>
+        <v>579.4099731445312</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2287.9091796875</v>
+        <v>641.3988037109375</v>
       </c>
       <c r="HR4" t="n">
-        <v>2283.29541015625</v>
+        <v>602.5137939453125</v>
       </c>
       <c r="HS4" t="n">
-        <v>2251.344482421875</v>
+        <v>459.6295776367188</v>
       </c>
       <c r="HT4" t="n">
-        <v>2244.576171875</v>
+        <v>584.67578125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2233.08447265625</v>
+        <v>582.5680541992188</v>
       </c>
       <c r="HV4" t="n">
-        <v>2228.5517578125</v>
+        <v>580.0900268554688</v>
       </c>
       <c r="HW4" t="n">
-        <v>2223.525634765625</v>
+        <v>603.4817504882812</v>
       </c>
       <c r="HX4" t="n">
-        <v>2219.255859375</v>
+        <v>646.450439453125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2218.87841796875</v>
+        <v>683.21044921875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2218.214111328125</v>
+        <v>718.5591430664062</v>
       </c>
       <c r="IA4" t="n">
-        <v>2213.133544921875</v>
+        <v>761.0401611328125</v>
       </c>
       <c r="IB4" t="n">
-        <v>2209.427734375</v>
+        <v>797.4705810546875</v>
       </c>
       <c r="IC4" t="n">
-        <v>2208.6298828125</v>
+        <v>828.844970703125</v>
       </c>
       <c r="ID4" t="n">
-        <v>2208.115234375</v>
+        <v>852.5776977539062</v>
       </c>
       <c r="IE4" t="n">
-        <v>2208.2119140625</v>
+        <v>871.6709594726562</v>
       </c>
       <c r="IF4" t="n">
-        <v>2208.30126953125</v>
+        <v>888.3464965820312</v>
       </c>
       <c r="IG4" t="n">
-        <v>2208.920654296875</v>
+        <v>889.535400390625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2208.513427734375</v>
+        <v>888.0943603515625</v>
       </c>
       <c r="II4" t="n">
-        <v>2233.25439453125</v>
+        <v>880.4573974609375</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2242.553955078125</v>
+        <v>844.134765625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2266.265869140625</v>
+        <v>812.5150756835938</v>
       </c>
       <c r="IL4" t="n">
-        <v>2277.7734375</v>
+        <v>778.6860961914062</v>
       </c>
       <c r="IM4" t="n">
-        <v>2256.93603515625</v>
+        <v>747.6407470703125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2254.254638671875</v>
+        <v>649.42138671875</v>
       </c>
       <c r="IO4" t="n">
-        <v>2261.250732421875</v>
+        <v>607.9986572265625</v>
       </c>
       <c r="IP4" t="n">
-        <v>2274.795654296875</v>
+        <v>484.239501953125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2261.160888671875</v>
+        <v>619.5147705078125</v>
       </c>
       <c r="IR4" t="n">
-        <v>2260.022216796875</v>
+        <v>616.3408813476562</v>
       </c>
       <c r="IS4" t="n">
-        <v>2257.318115234375</v>
+        <v>610.9146118164062</v>
       </c>
       <c r="IT4" t="n">
-        <v>2273.51904296875</v>
+        <v>606.32958984375</v>
       </c>
       <c r="IU4" t="n">
-        <v>2280.226318359375</v>
+        <v>592.362060546875</v>
       </c>
       <c r="IV4" t="n">
-        <v>2281.16943359375</v>
+        <v>578.1575927734375</v>
       </c>
       <c r="IW4" t="n">
-        <v>2287.50048828125</v>
+        <v>575.644775390625</v>
       </c>
       <c r="IX4" t="n">
-        <v>2287.130859375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2293.865234375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2292.43896484375</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2304.123046875</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2308.3505859375</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2291.051025390625</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2285.83984375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2296.74267578125</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2283.32421875</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2287.35009765625</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2289.124755859375</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2287.734130859375</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2283.96044921875</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2283.156005859375</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2269.339111328125</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2239.989013671875</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2225.5537109375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2220.40771484375</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2227.6708984375</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2243.268310546875</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2238.022705078125</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2210.560791015625</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2206.843505859375</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2203.89111328125</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2200.00146484375</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2192.8212890625</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2188.921142578125</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2188.76513671875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2193.73974609375</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2219.000732421875</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2229.405029296875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2241.203369140625</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2255.517333984375</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2257.360107421875</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2258.60595703125</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2261.853271484375</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2265.9501953125</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2270.968505859375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2270.87548828125</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2272.8994140625</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2281.30419921875</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2310.35693359375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2348.826416015625</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2349.158935546875</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2344.2626953125</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2338.075927734375</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2345.33837890625</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2346.670166015625</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2343.3291015625</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2349.24560546875</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2314.499267578125</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2298.101806640625</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2288.60888671875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2287.3046875</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2276.39208984375</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2226.458984375</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2189.0009765625</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2189.3486328125</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2118.5419921875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2061.730712890625</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>1993.842041015625</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1977.852661132812</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1909.228271484375</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1841.789672851562</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1752.944213867188</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1709.61865234375</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1665.967651367188</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1622.976440429688</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1584.044555664062</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1538.794555664062</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1477.091918945312</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1401.873657226562</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1353.19921875</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1297.763305664062</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1216.84521484375</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>1164.880981445312</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>1110.032958984375</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>1063.936279296875</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>1049.365112304688</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>917.5341796875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>892.537841796875</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>865.9955444335938</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>846.7354736328125</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>836.8984375</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>849.3300170898438</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>986.9458618164062</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>998.4434814453125</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>1005.878967285156</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>1016.550964355469</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>1048.088989257812</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>1074.592407226562</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>1037.832641601562</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>1061.888427734375</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>1136.48291015625</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>1161.753173828125</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>1183.389038085938</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>1154.922119140625</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>1079.412963867188</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>974.6473388671875</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>915.3219604492188</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>887.25048828125</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>849.838134765625</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>811.3321533203125</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>807.7110595703125</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>799.4186401367188</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>797.2271728515625</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>799.9863891601562</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>801.2530517578125</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>801.5248413085938</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>802.8471069335938</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>807.1531372070312</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>809.4411010742188</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>819.4188842773438</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>834.963134765625</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>835.5661010742188</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>840.6146240234375</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>846.514892578125</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>846.5320434570312</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>840.2122192382812</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>820.9197387695312</v>
+        <v>571.0516357421875</v>
       </c>
     </row>
   </sheetData>
